--- a/output/nla_phyto_taxonomy.xlsx
+++ b/output/nla_phyto_taxonomy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13995" windowHeight="7500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="13995" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="nla_phyto_taxonomy" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nla_phyto_taxonomy!$A$1:$O$365</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">toxins!$A$1:$J$15</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -4426,7 +4426,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4622,12 +4622,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2C2C2C"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -5067,7 +5061,7 @@
     <xf numFmtId="0" fontId="24" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5085,7 +5079,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5449,9 +5443,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M366" sqref="M366"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I186" sqref="A186:XFD186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16417,7 +16411,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/output/nla_phyto_taxonomy.xlsx
+++ b/output/nla_phyto_taxonomy.xlsx
@@ -19,7 +19,7 @@
     <sheet name="confusions" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nla_phyto_taxonomy!$A$1:$O$360</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nla_phyto_taxonomy!$A$1:$O$364</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">toxins!$A$1:$J$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">toxLoftin!$A$1:$F$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">toxPaerl!$A$1:$G$13</definedName>
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3543" uniqueCount="1366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3574" uniqueCount="1372">
   <si>
     <t>phylum</t>
   </si>
@@ -4121,9 +4121,6 @@
   </si>
   <si>
     <t>genus shown as "Sphaerodinium/Glenodinium/Peridiniopsis Complex" in 2007; changed to "Sphaerodinium"</t>
-  </si>
-  <si>
-    <t>Staurodesmus/Arthrodesmus/Octacanthium,"Staurodesmus"</t>
   </si>
   <si>
     <t>Teiling, 1948</t>
@@ -4694,6 +4691,27 @@
   </si>
   <si>
     <t>comment</t>
+  </si>
+  <si>
+    <t>Staurodesmus/Arthrodesmus/Octacanthium</t>
+  </si>
+  <si>
+    <t>Jaaginema</t>
+  </si>
+  <si>
+    <t>Karayevia</t>
+  </si>
+  <si>
+    <t>http://algaebase.org/search/genus/detail/?genus_id=Q607d9e6637155eee&amp;-session=abv4:CC2E5C920ecc92CA46KJD7A08040</t>
+  </si>
+  <si>
+    <t>Round &amp; L.Bukhtiyarova ex Round, 1998</t>
+  </si>
+  <si>
+    <t>http://algaebase.org/search/genus/detail/?genus_id=Ra066cdda960b1452&amp;-session=abv4:CC2E5C920ecc92CA46KJD7A08040</t>
+  </si>
+  <si>
+    <t>Jaaginema; Jaaginema metaphyticum</t>
   </si>
 </sst>
 </file>
@@ -5745,11 +5763,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O360"/>
+  <dimension ref="A1:O364"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A186" sqref="A186:XFD188"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K365" sqref="K365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5808,10 +5826,10 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="O1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -6422,7 +6440,7 @@
         <v>29</v>
       </c>
       <c r="N20" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O20" t="s">
         <v>30</v>
@@ -8559,10 +8577,10 @@
         <v>34</v>
       </c>
       <c r="M91" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="O91" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
@@ -15181,13 +15199,13 @@
         <v>815</v>
       </c>
       <c r="G315" t="s">
-        <v>1276</v>
+        <v>1018</v>
       </c>
       <c r="H315" t="s">
         <v>1018</v>
       </c>
       <c r="I315" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="J315" s="1" t="s">
         <v>34</v>
@@ -15198,34 +15216,31 @@
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>253</v>
-      </c>
-      <c r="B316" t="s">
-        <v>262</v>
+        <v>812</v>
       </c>
       <c r="C316" t="s">
-        <v>300</v>
-      </c>
-      <c r="D316" t="s">
-        <v>301</v>
+        <v>813</v>
       </c>
       <c r="E316" t="s">
-        <v>327</v>
+        <v>814</v>
       </c>
       <c r="F316" t="s">
-        <v>488</v>
+        <v>815</v>
       </c>
       <c r="G316" t="s">
-        <v>492</v>
+        <v>1365</v>
+      </c>
+      <c r="H316" t="s">
+        <v>1018</v>
       </c>
       <c r="I316" t="s">
-        <v>284</v>
+        <v>1276</v>
       </c>
       <c r="J316" s="1" t="s">
-        <v>492</v>
+        <v>34</v>
       </c>
       <c r="K316" s="1" t="s">
-        <v>493</v>
+        <v>34</v>
       </c>
     </row>
     <row r="317" spans="1:15" x14ac:dyDescent="0.25">
@@ -15239,25 +15254,25 @@
         <v>300</v>
       </c>
       <c r="D317" t="s">
-        <v>374</v>
+        <v>301</v>
       </c>
       <c r="E317" t="s">
-        <v>393</v>
+        <v>327</v>
       </c>
       <c r="F317" t="s">
-        <v>394</v>
+        <v>488</v>
       </c>
       <c r="G317" t="s">
-        <v>407</v>
+        <v>492</v>
       </c>
       <c r="I317" t="s">
         <v>284</v>
       </c>
       <c r="J317" s="1" t="s">
-        <v>408</v>
+        <v>492</v>
       </c>
       <c r="K317" s="1" t="s">
-        <v>408</v>
+        <v>493</v>
       </c>
     </row>
     <row r="318" spans="1:15" x14ac:dyDescent="0.25">
@@ -15280,16 +15295,16 @@
         <v>394</v>
       </c>
       <c r="G318" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I318" t="s">
-        <v>410</v>
+        <v>284</v>
       </c>
       <c r="J318" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K318" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="319" spans="1:15" x14ac:dyDescent="0.25">
@@ -15303,31 +15318,28 @@
         <v>300</v>
       </c>
       <c r="D319" t="s">
-        <v>301</v>
+        <v>374</v>
       </c>
       <c r="E319" t="s">
-        <v>443</v>
+        <v>393</v>
       </c>
       <c r="F319" t="s">
-        <v>494</v>
+        <v>394</v>
       </c>
       <c r="G319" t="s">
-        <v>500</v>
+        <v>409</v>
       </c>
       <c r="I319" t="s">
-        <v>501</v>
+        <v>410</v>
       </c>
       <c r="J319" s="1" t="s">
-        <v>502</v>
+        <v>409</v>
       </c>
       <c r="K319" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="O319" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="320" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>253</v>
       </c>
@@ -15335,260 +15347,266 @@
         <v>262</v>
       </c>
       <c r="C320" t="s">
+        <v>300</v>
+      </c>
+      <c r="D320" t="s">
+        <v>301</v>
+      </c>
+      <c r="E320" t="s">
+        <v>443</v>
+      </c>
+      <c r="F320" t="s">
+        <v>494</v>
+      </c>
+      <c r="G320" t="s">
+        <v>500</v>
+      </c>
+      <c r="I320" t="s">
+        <v>501</v>
+      </c>
+      <c r="J320" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="K320" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="O320" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>253</v>
+      </c>
+      <c r="B321" t="s">
+        <v>262</v>
+      </c>
+      <c r="C321" t="s">
         <v>263</v>
       </c>
-      <c r="D320" t="s">
+      <c r="D321" t="s">
         <v>286</v>
       </c>
-      <c r="E320" t="s">
+      <c r="E321" t="s">
         <v>287</v>
       </c>
-      <c r="F320" t="s">
+      <c r="F321" t="s">
         <v>288</v>
       </c>
-      <c r="G320" t="s">
+      <c r="G321" t="s">
         <v>297</v>
       </c>
-      <c r="I320" t="s">
+      <c r="I321" t="s">
         <v>298</v>
       </c>
-      <c r="J320" s="1" t="s">
+      <c r="J321" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="K320" s="1" t="s">
+      <c r="K321" s="1" t="s">
         <v>299</v>
-      </c>
-    </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>596</v>
-      </c>
-      <c r="C321" t="s">
-        <v>927</v>
-      </c>
-      <c r="E321" t="s">
-        <v>928</v>
-      </c>
-      <c r="F321" t="s">
-        <v>929</v>
-      </c>
-      <c r="G321" t="s">
-        <v>930</v>
-      </c>
-      <c r="I321" t="s">
-        <v>931</v>
-      </c>
-      <c r="J321" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K321" s="1" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>13</v>
+        <v>596</v>
       </c>
       <c r="C322" t="s">
-        <v>14</v>
-      </c>
-      <c r="D322" t="s">
-        <v>23</v>
+        <v>927</v>
       </c>
       <c r="E322" t="s">
-        <v>24</v>
+        <v>928</v>
       </c>
       <c r="F322" t="s">
-        <v>1077</v>
+        <v>929</v>
       </c>
       <c r="G322" t="s">
-        <v>1078</v>
+        <v>930</v>
       </c>
       <c r="I322" t="s">
-        <v>1079</v>
+        <v>931</v>
       </c>
       <c r="J322" s="1" t="s">
-        <v>1078</v>
+        <v>34</v>
       </c>
       <c r="K322" s="1" t="s">
-        <v>34</v>
+        <v>930</v>
       </c>
     </row>
     <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>659</v>
-      </c>
-      <c r="B323" t="s">
-        <v>660</v>
+        <v>13</v>
       </c>
       <c r="C323" t="s">
-        <v>682</v>
+        <v>14</v>
+      </c>
+      <c r="D323" t="s">
+        <v>23</v>
       </c>
       <c r="E323" t="s">
-        <v>1170</v>
+        <v>24</v>
       </c>
       <c r="F323" t="s">
-        <v>1171</v>
+        <v>1077</v>
       </c>
       <c r="G323" t="s">
-        <v>1173</v>
+        <v>1078</v>
       </c>
       <c r="I323" t="s">
-        <v>1174</v>
+        <v>1079</v>
       </c>
       <c r="J323" s="1" t="s">
-        <v>1173</v>
+        <v>1078</v>
       </c>
       <c r="K323" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="O323" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
+        <v>659</v>
+      </c>
+      <c r="B324" t="s">
+        <v>660</v>
+      </c>
+      <c r="C324" t="s">
+        <v>682</v>
+      </c>
+      <c r="E324" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F324" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G324" t="s">
+        <v>1173</v>
+      </c>
+      <c r="I324" t="s">
+        <v>1174</v>
+      </c>
+      <c r="J324" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K324" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O324" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
         <v>596</v>
       </c>
-      <c r="C324" t="s">
+      <c r="C325" t="s">
         <v>927</v>
       </c>
-      <c r="E324" t="s">
+      <c r="E325" t="s">
         <v>928</v>
       </c>
-      <c r="F324" t="s">
+      <c r="F325" t="s">
         <v>929</v>
       </c>
-      <c r="G324" t="s">
+      <c r="G325" t="s">
         <v>1272</v>
       </c>
-      <c r="I324" t="s">
+      <c r="I325" t="s">
         <v>931</v>
       </c>
-      <c r="J324" s="1" t="s">
+      <c r="J325" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="K324" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="325" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+      <c r="K325" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
         <v>567</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B326" t="s">
         <v>568</v>
       </c>
-      <c r="C325" t="s">
+      <c r="C326" t="s">
         <v>569</v>
       </c>
-      <c r="E325" t="s">
+      <c r="E326" t="s">
         <v>570</v>
       </c>
-      <c r="F325" t="s">
+      <c r="F326" t="s">
         <v>571</v>
       </c>
-      <c r="G325" t="s">
+      <c r="G326" t="s">
         <v>586</v>
       </c>
-      <c r="I325" t="s">
+      <c r="I326" t="s">
         <v>587</v>
       </c>
-      <c r="J325" s="1" t="s">
+      <c r="J326" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="K325" s="1" t="s">
+      <c r="K326" s="1" t="s">
         <v>588</v>
-      </c>
-    </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>596</v>
-      </c>
-      <c r="C326" t="s">
-        <v>604</v>
-      </c>
-      <c r="E326" t="s">
-        <v>605</v>
-      </c>
-      <c r="F326" t="s">
-        <v>610</v>
-      </c>
-      <c r="G326" t="s">
-        <v>1248</v>
-      </c>
-      <c r="I326" t="s">
-        <v>955</v>
-      </c>
-      <c r="J326" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="K326" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
+        <v>596</v>
+      </c>
+      <c r="C327" t="s">
+        <v>604</v>
+      </c>
+      <c r="E327" t="s">
+        <v>605</v>
+      </c>
+      <c r="F327" t="s">
+        <v>610</v>
+      </c>
+      <c r="G327" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I327" t="s">
+        <v>955</v>
+      </c>
+      <c r="J327" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="K327" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
         <v>253</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B328" t="s">
         <v>262</v>
       </c>
-      <c r="C327" t="s">
+      <c r="C328" t="s">
         <v>300</v>
       </c>
-      <c r="D327" t="s">
+      <c r="D328" t="s">
         <v>301</v>
       </c>
-      <c r="E327" t="s">
+      <c r="E328" t="s">
         <v>443</v>
       </c>
-      <c r="F327" t="s">
+      <c r="F328" t="s">
         <v>494</v>
       </c>
-      <c r="G327" t="s">
+      <c r="G328" t="s">
         <v>504</v>
       </c>
-      <c r="I327" t="s">
+      <c r="I328" t="s">
         <v>505</v>
       </c>
-      <c r="J327" s="1" t="s">
+      <c r="J328" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="K327" s="1" t="s">
+      <c r="K328" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="328" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>13</v>
-      </c>
-      <c r="C328" t="s">
-        <v>14</v>
-      </c>
-      <c r="D328" t="s">
-        <v>15</v>
-      </c>
-      <c r="E328" t="s">
-        <v>16</v>
-      </c>
-      <c r="F328" t="s">
-        <v>105</v>
-      </c>
-      <c r="G328" t="s">
-        <v>106</v>
-      </c>
-      <c r="I328" t="s">
-        <v>19</v>
-      </c>
-      <c r="J328" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K328" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="329" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>13</v>
       </c>
@@ -15602,115 +15620,109 @@
         <v>16</v>
       </c>
       <c r="F329" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="G329" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="I329" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="J329" s="1" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="K329" s="1" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
     </row>
     <row r="330" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
+        <v>13</v>
+      </c>
+      <c r="C330" t="s">
+        <v>14</v>
+      </c>
+      <c r="D330" t="s">
+        <v>15</v>
+      </c>
+      <c r="E330" t="s">
+        <v>16</v>
+      </c>
+      <c r="F330" t="s">
+        <v>17</v>
+      </c>
+      <c r="G330" t="s">
+        <v>79</v>
+      </c>
+      <c r="I330" t="s">
+        <v>80</v>
+      </c>
+      <c r="J330" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K330" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
         <v>253</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B331" t="s">
         <v>262</v>
       </c>
-      <c r="C330" t="s">
+      <c r="C331" t="s">
         <v>300</v>
       </c>
-      <c r="D330" t="s">
+      <c r="D331" t="s">
         <v>374</v>
       </c>
-      <c r="E330" t="s">
+      <c r="E331" t="s">
         <v>393</v>
       </c>
-      <c r="F330" t="s">
+      <c r="F331" t="s">
         <v>394</v>
       </c>
-      <c r="G330" t="s">
+      <c r="G331" t="s">
         <v>411</v>
       </c>
-      <c r="I330" t="s">
+      <c r="I331" t="s">
         <v>412</v>
       </c>
-      <c r="J330" s="1" t="s">
+      <c r="J331" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="K330" s="1" t="s">
+      <c r="K331" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
         <v>596</v>
       </c>
-      <c r="C331" t="s">
+      <c r="C332" t="s">
         <v>627</v>
       </c>
-      <c r="E331" t="s">
+      <c r="E332" t="s">
         <v>628</v>
       </c>
-      <c r="F331" t="s">
+      <c r="F332" t="s">
         <v>632</v>
       </c>
-      <c r="G331" t="s">
+      <c r="G332" t="s">
         <v>633</v>
       </c>
-      <c r="I331" t="s">
+      <c r="I332" t="s">
         <v>624</v>
       </c>
-      <c r="J331" s="1" t="s">
+      <c r="J332" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="K331" s="1" t="s">
+      <c r="K332" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="332" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
-        <v>253</v>
-      </c>
-      <c r="B332" t="s">
-        <v>262</v>
-      </c>
-      <c r="C332" t="s">
-        <v>300</v>
-      </c>
-      <c r="D332" t="s">
-        <v>374</v>
-      </c>
-      <c r="E332" t="s">
-        <v>380</v>
-      </c>
-      <c r="F332" t="s">
-        <v>381</v>
-      </c>
-      <c r="G332" t="s">
-        <v>507</v>
-      </c>
-      <c r="I332" t="s">
-        <v>365</v>
-      </c>
-      <c r="J332" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="K332" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="O332" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>253</v>
       </c>
@@ -15724,54 +15736,63 @@
         <v>374</v>
       </c>
       <c r="E333" t="s">
+        <v>380</v>
+      </c>
+      <c r="F333" t="s">
+        <v>381</v>
+      </c>
+      <c r="G333" t="s">
+        <v>507</v>
+      </c>
+      <c r="I333" t="s">
+        <v>365</v>
+      </c>
+      <c r="J333" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="K333" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="O333" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>253</v>
+      </c>
+      <c r="B334" t="s">
+        <v>262</v>
+      </c>
+      <c r="C334" t="s">
+        <v>300</v>
+      </c>
+      <c r="D334" t="s">
+        <v>374</v>
+      </c>
+      <c r="E334" t="s">
         <v>375</v>
       </c>
-      <c r="F333" t="s">
+      <c r="F334" t="s">
         <v>376</v>
       </c>
-      <c r="G333" t="s">
+      <c r="G334" t="s">
         <v>1150</v>
       </c>
-      <c r="I333" t="s">
+      <c r="I334" t="s">
         <v>1151</v>
       </c>
-      <c r="J333" s="1" t="s">
+      <c r="J334" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="K333" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O333" t="s">
+      <c r="K334" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O334" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="334" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>812</v>
-      </c>
-      <c r="C334" t="s">
-        <v>813</v>
-      </c>
-      <c r="E334" t="s">
-        <v>814</v>
-      </c>
-      <c r="F334" t="s">
-        <v>815</v>
-      </c>
-      <c r="G334" t="s">
-        <v>1019</v>
-      </c>
-      <c r="I334" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J334" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="K334" s="1" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>812</v>
       </c>
@@ -15785,112 +15806,103 @@
         <v>815</v>
       </c>
       <c r="G335" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="I335" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="J335" s="1" t="s">
-        <v>34</v>
+        <v>1019</v>
       </c>
       <c r="K335" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
+        <v>812</v>
+      </c>
+      <c r="C336" t="s">
+        <v>813</v>
+      </c>
+      <c r="E336" t="s">
+        <v>814</v>
+      </c>
+      <c r="F336" t="s">
+        <v>815</v>
+      </c>
+      <c r="G336" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I336" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J336" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K336" s="1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
         <v>659</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B337" t="s">
         <v>660</v>
       </c>
-      <c r="C336" t="s">
+      <c r="C337" t="s">
         <v>682</v>
       </c>
-      <c r="E336" t="s">
+      <c r="E337" t="s">
         <v>683</v>
       </c>
-      <c r="F336" t="s">
+      <c r="F337" t="s">
         <v>778</v>
       </c>
-      <c r="G336" t="s">
+      <c r="G337" t="s">
         <v>860</v>
       </c>
-      <c r="I336" t="s">
+      <c r="I337" t="s">
         <v>861</v>
       </c>
-      <c r="J336" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K336" s="1" t="s">
+      <c r="J337" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K337" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="O336" t="s">
+      <c r="O337" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="337" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
+    <row r="338" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
         <v>596</v>
       </c>
-      <c r="C337" t="s">
+      <c r="C338" t="s">
         <v>597</v>
       </c>
-      <c r="E337" t="s">
+      <c r="E338" t="s">
         <v>598</v>
       </c>
-      <c r="F337" t="s">
+      <c r="F338" t="s">
         <v>599</v>
       </c>
-      <c r="G337" t="s">
+      <c r="G338" t="s">
         <v>1073</v>
       </c>
-      <c r="I337" t="s">
+      <c r="I338" t="s">
         <v>1071</v>
       </c>
-      <c r="J337" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K337" s="1" t="s">
+      <c r="J338" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K338" s="1" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="338" spans="1:15" ht="195" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
-        <v>659</v>
-      </c>
-      <c r="B338" t="s">
-        <v>660</v>
-      </c>
-      <c r="C338" t="s">
-        <v>682</v>
-      </c>
-      <c r="E338" t="s">
-        <v>683</v>
-      </c>
-      <c r="F338" t="s">
-        <v>695</v>
-      </c>
-      <c r="G338" t="s">
-        <v>696</v>
-      </c>
-      <c r="H338" t="s">
-        <v>697</v>
-      </c>
-      <c r="I338" t="s">
-        <v>698</v>
-      </c>
-      <c r="J338" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K338" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="M338" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="339" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" ht="195" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>659</v>
       </c>
@@ -15907,22 +15919,25 @@
         <v>695</v>
       </c>
       <c r="G339" t="s">
+        <v>696</v>
+      </c>
+      <c r="H339" t="s">
         <v>697</v>
       </c>
       <c r="I339" t="s">
         <v>698</v>
       </c>
       <c r="J339" s="1" t="s">
-        <v>1176</v>
+        <v>34</v>
       </c>
       <c r="K339" s="1" t="s">
-        <v>34</v>
+        <v>699</v>
       </c>
       <c r="M339" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>659</v>
       </c>
@@ -15936,19 +15951,22 @@
         <v>683</v>
       </c>
       <c r="F340" t="s">
-        <v>778</v>
+        <v>695</v>
       </c>
       <c r="G340" t="s">
-        <v>864</v>
+        <v>697</v>
       </c>
       <c r="I340" t="s">
-        <v>865</v>
+        <v>698</v>
       </c>
       <c r="J340" s="1" t="s">
-        <v>34</v>
+        <v>1176</v>
       </c>
       <c r="K340" s="1" t="s">
-        <v>866</v>
+        <v>34</v>
+      </c>
+      <c r="M340" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="341" spans="1:15" x14ac:dyDescent="0.25">
@@ -15959,28 +15977,28 @@
         <v>660</v>
       </c>
       <c r="C341" t="s">
-        <v>962</v>
+        <v>682</v>
       </c>
       <c r="E341" t="s">
-        <v>963</v>
+        <v>683</v>
       </c>
       <c r="F341" t="s">
-        <v>964</v>
+        <v>778</v>
       </c>
       <c r="G341" t="s">
-        <v>965</v>
+        <v>864</v>
       </c>
       <c r="I341" t="s">
-        <v>534</v>
+        <v>865</v>
       </c>
       <c r="J341" s="1" t="s">
-        <v>965</v>
+        <v>34</v>
       </c>
       <c r="K341" s="1" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="342" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>659</v>
       </c>
@@ -15988,434 +16006,434 @@
         <v>660</v>
       </c>
       <c r="C342" t="s">
+        <v>962</v>
+      </c>
+      <c r="E342" t="s">
+        <v>963</v>
+      </c>
+      <c r="F342" t="s">
+        <v>964</v>
+      </c>
+      <c r="G342" t="s">
+        <v>965</v>
+      </c>
+      <c r="I342" t="s">
+        <v>534</v>
+      </c>
+      <c r="J342" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="K342" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="343" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>659</v>
+      </c>
+      <c r="B343" t="s">
+        <v>660</v>
+      </c>
+      <c r="C343" t="s">
         <v>682</v>
       </c>
-      <c r="E342" t="s">
+      <c r="E343" t="s">
         <v>683</v>
       </c>
-      <c r="F342" t="s">
+      <c r="F343" t="s">
         <v>778</v>
       </c>
-      <c r="G342" t="s">
+      <c r="G343" t="s">
         <v>799</v>
       </c>
-      <c r="I342" t="s">
+      <c r="I343" t="s">
         <v>749</v>
       </c>
-      <c r="J342" s="1" t="s">
+      <c r="J343" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="K342" s="1" t="s">
+      <c r="K343" s="1" t="s">
         <v>801</v>
-      </c>
-    </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
-        <v>253</v>
-      </c>
-      <c r="B343" t="s">
-        <v>262</v>
-      </c>
-      <c r="C343" t="s">
-        <v>263</v>
-      </c>
-      <c r="D343" t="s">
-        <v>286</v>
-      </c>
-      <c r="E343" t="s">
-        <v>1127</v>
-      </c>
-      <c r="F343" t="s">
-        <v>1136</v>
-      </c>
-      <c r="G343" t="s">
-        <v>1137</v>
-      </c>
-      <c r="I343" t="s">
-        <v>1138</v>
-      </c>
-      <c r="J343" s="1" t="s">
-        <v>1137</v>
-      </c>
-      <c r="K343" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
+        <v>253</v>
+      </c>
+      <c r="B344" t="s">
+        <v>262</v>
+      </c>
+      <c r="C344" t="s">
+        <v>263</v>
+      </c>
+      <c r="D344" t="s">
+        <v>286</v>
+      </c>
+      <c r="E344" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F344" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G344" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I344" t="s">
+        <v>1138</v>
+      </c>
+      <c r="J344" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="K344" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
         <v>13</v>
       </c>
-      <c r="C344" t="s">
+      <c r="C345" t="s">
         <v>14</v>
       </c>
-      <c r="D344" t="s">
+      <c r="D345" t="s">
         <v>109</v>
       </c>
-      <c r="E344" t="s">
+      <c r="E345" t="s">
         <v>110</v>
       </c>
-      <c r="F344" t="s">
+      <c r="F345" t="s">
         <v>111</v>
       </c>
-      <c r="G344" t="s">
+      <c r="G345" t="s">
         <v>112</v>
       </c>
-      <c r="I344" t="s">
+      <c r="I345" t="s">
         <v>113</v>
       </c>
-      <c r="J344" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K344" s="1" t="s">
+      <c r="J345" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K345" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="345" spans="1:15" ht="225" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
+    <row r="346" spans="1:15" ht="225" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
         <v>567</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B346" t="s">
         <v>568</v>
       </c>
-      <c r="C345" t="s">
+      <c r="C346" t="s">
         <v>569</v>
       </c>
-      <c r="E345" t="s">
+      <c r="E346" t="s">
         <v>570</v>
       </c>
-      <c r="F345" t="s">
+      <c r="F346" t="s">
         <v>571</v>
       </c>
-      <c r="G345" t="s">
+      <c r="G346" t="s">
         <v>589</v>
       </c>
-      <c r="I345" t="s">
+      <c r="I346" t="s">
         <v>590</v>
       </c>
-      <c r="J345" s="1" t="s">
+      <c r="J346" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="K345" s="1" t="s">
+      <c r="K346" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="O345" t="s">
+      <c r="O346" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="346" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
+    <row r="347" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
         <v>659</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B347" t="s">
         <v>660</v>
       </c>
-      <c r="C346" t="s">
+      <c r="C347" t="s">
         <v>682</v>
       </c>
-      <c r="E346" t="s">
+      <c r="E347" t="s">
         <v>689</v>
       </c>
-      <c r="F346" t="s">
+      <c r="F347" t="s">
         <v>836</v>
       </c>
-      <c r="G346" t="s">
+      <c r="G347" t="s">
         <v>837</v>
       </c>
-      <c r="I346" t="s">
+      <c r="I347" t="s">
         <v>838</v>
       </c>
-      <c r="J346" s="1" t="s">
+      <c r="J347" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="K346" s="1" t="s">
+      <c r="K347" s="1" t="s">
         <v>839</v>
-      </c>
-    </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
-        <v>596</v>
-      </c>
-      <c r="C347" t="s">
-        <v>927</v>
-      </c>
-      <c r="E347" t="s">
-        <v>1047</v>
-      </c>
-      <c r="F347" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G347" t="s">
-        <v>1049</v>
-      </c>
-      <c r="I347" t="s">
-        <v>1050</v>
-      </c>
-      <c r="J347" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="K347" s="1" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>13</v>
+        <v>596</v>
       </c>
       <c r="C348" t="s">
-        <v>14</v>
-      </c>
-      <c r="D348" t="s">
-        <v>23</v>
+        <v>927</v>
       </c>
       <c r="E348" t="s">
-        <v>92</v>
+        <v>1047</v>
       </c>
       <c r="F348" t="s">
-        <v>145</v>
+        <v>1048</v>
       </c>
       <c r="G348" t="s">
-        <v>178</v>
+        <v>1049</v>
       </c>
       <c r="I348" t="s">
-        <v>179</v>
+        <v>1050</v>
       </c>
       <c r="J348" s="1" t="s">
-        <v>178</v>
+        <v>1049</v>
       </c>
       <c r="K348" s="1" t="s">
-        <v>180</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>659</v>
-      </c>
-      <c r="B349" t="s">
-        <v>660</v>
+        <v>13</v>
       </c>
       <c r="C349" t="s">
-        <v>661</v>
+        <v>14</v>
+      </c>
+      <c r="D349" t="s">
+        <v>23</v>
       </c>
       <c r="E349" t="s">
-        <v>662</v>
+        <v>92</v>
       </c>
       <c r="F349" t="s">
-        <v>738</v>
+        <v>145</v>
       </c>
       <c r="G349" t="s">
-        <v>1194</v>
+        <v>178</v>
       </c>
       <c r="I349" t="s">
-        <v>437</v>
+        <v>179</v>
       </c>
       <c r="J349" s="1" t="s">
-        <v>1194</v>
+        <v>178</v>
       </c>
       <c r="K349" s="1" t="s">
-        <v>34</v>
+        <v>180</v>
       </c>
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>253</v>
+        <v>659</v>
       </c>
       <c r="B350" t="s">
-        <v>262</v>
+        <v>660</v>
       </c>
       <c r="C350" t="s">
-        <v>300</v>
-      </c>
-      <c r="D350" t="s">
-        <v>301</v>
+        <v>661</v>
       </c>
       <c r="E350" t="s">
-        <v>341</v>
+        <v>662</v>
       </c>
       <c r="F350" t="s">
-        <v>342</v>
+        <v>738</v>
       </c>
       <c r="G350" t="s">
-        <v>357</v>
+        <v>1194</v>
       </c>
       <c r="I350" t="s">
-        <v>358</v>
+        <v>437</v>
       </c>
       <c r="J350" s="1" t="s">
-        <v>357</v>
+        <v>1194</v>
       </c>
       <c r="K350" s="1" t="s">
-        <v>357</v>
+        <v>34</v>
       </c>
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
+        <v>253</v>
+      </c>
+      <c r="B351" t="s">
+        <v>262</v>
+      </c>
+      <c r="C351" t="s">
+        <v>300</v>
+      </c>
+      <c r="D351" t="s">
+        <v>301</v>
+      </c>
+      <c r="E351" t="s">
+        <v>341</v>
+      </c>
+      <c r="F351" t="s">
+        <v>342</v>
+      </c>
+      <c r="G351" t="s">
+        <v>357</v>
+      </c>
+      <c r="I351" t="s">
+        <v>358</v>
+      </c>
+      <c r="J351" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="K351" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
         <v>13</v>
       </c>
-      <c r="C351" t="s">
+      <c r="C352" t="s">
         <v>14</v>
       </c>
-      <c r="D351" t="s">
+      <c r="D352" t="s">
         <v>23</v>
       </c>
-      <c r="E351" t="s">
+      <c r="E352" t="s">
         <v>92</v>
       </c>
-      <c r="F351" t="s">
+      <c r="F352" t="s">
         <v>145</v>
       </c>
-      <c r="G351" t="s">
+      <c r="G352" t="s">
         <v>181</v>
       </c>
-      <c r="I351" t="s">
+      <c r="I352" t="s">
         <v>161</v>
       </c>
-      <c r="J351" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K351" s="1" t="s">
+      <c r="J352" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K352" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="352" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
+    <row r="353" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
         <v>659</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B353" t="s">
         <v>660</v>
       </c>
-      <c r="C352" t="s">
+      <c r="C353" t="s">
         <v>802</v>
       </c>
-      <c r="E352" t="s">
+      <c r="E353" t="s">
         <v>900</v>
       </c>
-      <c r="F352" t="s">
+      <c r="F353" t="s">
         <v>908</v>
       </c>
-      <c r="G352" t="s">
+      <c r="G353" t="s">
         <v>932</v>
       </c>
-      <c r="I352" t="s">
+      <c r="I353" t="s">
         <v>933</v>
       </c>
-      <c r="J352" s="1" t="s">
+      <c r="J353" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="K352" s="1" t="s">
+      <c r="K353" s="1" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
         <v>596</v>
       </c>
-      <c r="C353" t="s">
+      <c r="C354" t="s">
         <v>604</v>
       </c>
-      <c r="E353" t="s">
+      <c r="E354" t="s">
         <v>605</v>
       </c>
-      <c r="F353" t="s">
+      <c r="F354" t="s">
         <v>606</v>
       </c>
-      <c r="G353" t="s">
+      <c r="G354" t="s">
         <v>642</v>
       </c>
-      <c r="I353" t="s">
+      <c r="I354" t="s">
         <v>624</v>
       </c>
-      <c r="J353" s="1" t="s">
+      <c r="J354" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="K353" s="1" t="s">
+      <c r="K354" s="1" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
         <v>253</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B355" t="s">
         <v>254</v>
       </c>
-      <c r="C354" t="s">
+      <c r="C355" t="s">
         <v>255</v>
       </c>
-      <c r="E354" t="s">
+      <c r="E355" t="s">
         <v>281</v>
       </c>
-      <c r="F354" t="s">
+      <c r="F355" t="s">
         <v>282</v>
       </c>
-      <c r="G354" t="s">
+      <c r="G355" t="s">
         <v>1125</v>
       </c>
-      <c r="I354" t="s">
+      <c r="I355" t="s">
         <v>1126</v>
       </c>
-      <c r="J354" s="1" t="s">
+      <c r="J355" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="K354" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
+      <c r="K355" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
         <v>596</v>
       </c>
-      <c r="C355" t="s">
+      <c r="C356" t="s">
         <v>653</v>
       </c>
-      <c r="E355" t="s">
+      <c r="E356" t="s">
         <v>654</v>
       </c>
-      <c r="F355" t="s">
+      <c r="F356" t="s">
         <v>655</v>
       </c>
-      <c r="G355" t="s">
+      <c r="G356" t="s">
         <v>1239</v>
       </c>
-      <c r="I355" t="s">
+      <c r="I356" t="s">
         <v>1240</v>
       </c>
-      <c r="J355" s="1" t="s">
+      <c r="J356" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="K355" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>659</v>
-      </c>
-      <c r="B356" t="s">
-        <v>660</v>
-      </c>
-      <c r="C356" t="s">
-        <v>682</v>
-      </c>
-      <c r="E356" t="s">
-        <v>689</v>
-      </c>
-      <c r="F356" t="s">
-        <v>967</v>
-      </c>
-      <c r="G356" t="s">
-        <v>979</v>
-      </c>
-      <c r="I356" t="s">
-        <v>980</v>
-      </c>
-      <c r="J356" s="1" t="s">
-        <v>979</v>
-      </c>
       <c r="K356" s="1" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="357" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>659</v>
       </c>
@@ -16426,80 +16444,83 @@
         <v>682</v>
       </c>
       <c r="E357" t="s">
+        <v>689</v>
+      </c>
+      <c r="F357" t="s">
+        <v>967</v>
+      </c>
+      <c r="G357" t="s">
+        <v>979</v>
+      </c>
+      <c r="I357" t="s">
+        <v>980</v>
+      </c>
+      <c r="J357" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="K357" s="1" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>659</v>
+      </c>
+      <c r="B358" t="s">
+        <v>660</v>
+      </c>
+      <c r="C358" t="s">
+        <v>682</v>
+      </c>
+      <c r="E358" t="s">
         <v>683</v>
       </c>
-      <c r="F357" t="s">
+      <c r="F358" t="s">
         <v>778</v>
       </c>
-      <c r="G357" t="s">
+      <c r="G358" t="s">
         <v>779</v>
       </c>
-      <c r="I357" t="s">
+      <c r="I358" t="s">
         <v>780</v>
       </c>
-      <c r="J357" s="1" t="s">
+      <c r="J358" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="K357" s="1" t="s">
+      <c r="K358" s="1" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="358" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
+    <row r="359" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
         <v>13</v>
       </c>
-      <c r="C358" t="s">
+      <c r="C359" t="s">
         <v>14</v>
       </c>
-      <c r="D358" t="s">
+      <c r="D359" t="s">
         <v>15</v>
       </c>
-      <c r="E358" t="s">
+      <c r="E359" t="s">
         <v>16</v>
       </c>
-      <c r="F358" t="s">
+      <c r="F359" t="s">
         <v>43</v>
       </c>
-      <c r="G358" t="s">
+      <c r="G359" t="s">
         <v>82</v>
       </c>
-      <c r="I358" t="s">
+      <c r="I359" t="s">
         <v>83</v>
       </c>
-      <c r="J358" s="1" t="s">
+      <c r="J359" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K358" s="1" t="s">
+      <c r="K359" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>812</v>
-      </c>
-      <c r="C359" t="s">
-        <v>813</v>
-      </c>
-      <c r="E359" t="s">
-        <v>814</v>
-      </c>
-      <c r="F359" t="s">
-        <v>815</v>
-      </c>
-      <c r="G359" t="s">
-        <v>1024</v>
-      </c>
-      <c r="I359" t="s">
-        <v>821</v>
-      </c>
-      <c r="J359" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="K359" s="1" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>812</v>
       </c>
@@ -16507,28 +16528,130 @@
         <v>813</v>
       </c>
       <c r="E360" t="s">
+        <v>814</v>
+      </c>
+      <c r="F360" t="s">
+        <v>815</v>
+      </c>
+      <c r="G360" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I360" t="s">
+        <v>821</v>
+      </c>
+      <c r="J360" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K360" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>812</v>
+      </c>
+      <c r="C361" t="s">
+        <v>813</v>
+      </c>
+      <c r="E361" t="s">
         <v>1029</v>
       </c>
-      <c r="F360" t="s">
+      <c r="F361" t="s">
         <v>1030</v>
       </c>
-      <c r="G360" t="s">
+      <c r="G361" t="s">
         <v>1035</v>
       </c>
-      <c r="I360" t="s">
+      <c r="I361" t="s">
         <v>826</v>
       </c>
-      <c r="J360" s="1" t="s">
+      <c r="J361" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="K360" s="1" t="s">
+      <c r="K361" s="1" t="s">
         <v>1035</v>
       </c>
     </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G362" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>253</v>
+      </c>
+      <c r="B363" t="s">
+        <v>262</v>
+      </c>
+      <c r="C363" t="s">
+        <v>300</v>
+      </c>
+      <c r="D363" t="s">
+        <v>301</v>
+      </c>
+      <c r="E363" t="s">
+        <v>307</v>
+      </c>
+      <c r="F363" t="s">
+        <v>313</v>
+      </c>
+      <c r="G363" t="s">
+        <v>1367</v>
+      </c>
+      <c r="I363" t="s">
+        <v>1369</v>
+      </c>
+      <c r="J363" t="s">
+        <v>1367</v>
+      </c>
+      <c r="K363" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O363" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>13</v>
+      </c>
+      <c r="C364" t="s">
+        <v>14</v>
+      </c>
+      <c r="D364" t="s">
+        <v>15</v>
+      </c>
+      <c r="E364" t="s">
+        <v>16</v>
+      </c>
+      <c r="F364" t="s">
+        <v>193</v>
+      </c>
+      <c r="G364" t="s">
+        <v>1366</v>
+      </c>
+      <c r="I364" t="s">
+        <v>161</v>
+      </c>
+      <c r="J364" t="s">
+        <v>1366</v>
+      </c>
+      <c r="K364" t="s">
+        <v>1371</v>
+      </c>
+      <c r="O364" t="s">
+        <v>1370</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O360"/>
+  <autoFilter ref="A1:O364"/>
+  <hyperlinks>
+    <hyperlink ref="F363" r:id="rId1" display="http://algaebase.org/browse/taxonomy/?id=77642"/>
+    <hyperlink ref="E363" r:id="rId2" display="http://algaebase.org/browse/taxonomy/?id=139129"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -16555,22 +16678,22 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C1" t="s">
         <v>1353</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1354</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1355</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1356</v>
       </c>
-      <c r="F1" t="s">
-        <v>1357</v>
-      </c>
       <c r="G1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -16677,7 +16800,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -16748,7 +16871,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -16769,7 +16892,7 @@
       </c>
       <c r="F19" s="35"/>
       <c r="G19" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -16782,7 +16905,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -16790,7 +16913,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -16826,19 +16949,19 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C1" t="s">
         <v>1353</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1354</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1355</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1356</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1357</v>
       </c>
       <c r="G1" s="32"/>
     </row>
@@ -16897,7 +17020,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
@@ -16962,7 +17085,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -17008,7 +17131,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
@@ -17051,37 +17174,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1281</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1282</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>1298</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="J1" t="s">
         <v>1300</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>1284</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>1299</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1301</v>
-      </c>
       <c r="K1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -17089,7 +17212,7 @@
         <v>116</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -17106,7 +17229,7 @@
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="14" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -17114,7 +17237,7 @@
         <v>122</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -17127,7 +17250,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="14" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -17135,7 +17258,7 @@
         <v>127</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -17150,7 +17273,7 @@
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="14" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -17158,7 +17281,7 @@
         <v>132</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -17173,15 +17296,15 @@
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="14" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -17194,7 +17317,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="14" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
@@ -17202,7 +17325,7 @@
         <v>164</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9">
@@ -17217,7 +17340,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="14" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -17225,7 +17348,7 @@
         <v>88</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="11"/>
@@ -17238,7 +17361,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="14" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -17246,7 +17369,7 @@
         <v>140</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="11"/>
@@ -17259,15 +17382,15 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="14" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="11"/>
@@ -17280,15 +17403,15 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="14" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>1291</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>1292</v>
       </c>
       <c r="C11" s="9">
         <v>1</v>
@@ -17301,15 +17424,15 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="14" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>1293</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>1294</v>
       </c>
       <c r="C12" s="9">
         <v>1</v>
@@ -17328,7 +17451,7 @@
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="14" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -17336,7 +17459,7 @@
         <v>1107</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9">
@@ -17349,7 +17472,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="14" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -17357,7 +17480,7 @@
         <v>178</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="12"/>
@@ -17370,15 +17493,15 @@
         <v>1</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>1297</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>1298</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="11"/>
@@ -17391,12 +17514,12 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="14" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
   </sheetData>
@@ -17472,7 +17595,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>168</v>
@@ -17488,7 +17611,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>116</v>
@@ -17496,47 +17619,47 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>1306</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>1307</v>
       </c>
       <c r="C8" s="27"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>116</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>127</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -17544,13 +17667,13 @@
         <v>1091</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D12" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -17561,34 +17684,34 @@
         <v>116</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D13" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>175</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>116</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.35">
@@ -17599,10 +17722,10 @@
         <v>168</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.35">
@@ -17613,211 +17736,211 @@
         <v>168</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D17" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>1306</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>1307</v>
       </c>
       <c r="C25" s="27"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>1316</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>1317</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>1318</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>1319</v>
       </c>
       <c r="C27" s="25"/>
       <c r="D27" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B28" s="16" t="s">
         <v>1320</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>1321</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>1322</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>1323</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>1324</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>1325</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B31" s="17" t="s">
         <v>1326</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>1327</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>1328</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>1329</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B33" s="22" t="s">
         <v>1330</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>1331</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B34" s="16" t="s">
         <v>1332</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>1333</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>1334</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>1335</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B36" s="16" t="s">
         <v>1336</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>1337</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>1338</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>1339</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B38" s="16" t="s">
         <v>1340</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>1341</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B39" s="18" t="s">
         <v>1342</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>1343</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B40" s="16" t="s">
         <v>1344</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>1345</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="23" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B41" s="23" t="s">
         <v>1346</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>1347</v>
       </c>
       <c r="C41" s="31"/>
       <c r="D41" s="24" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
   </sheetData>

--- a/output/nla_phyto_taxonomy.xlsx
+++ b/output/nla_phyto_taxonomy.xlsx
@@ -19,7 +19,7 @@
     <sheet name="confusions" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nla_phyto_taxonomy!$A$1:$O$364</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nla_phyto_taxonomy!$A$1:$O$363</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">toxins!$A$1:$J$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">toxLoftin!$A$1:$F$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">toxPaerl!$A$1:$G$13</definedName>
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3574" uniqueCount="1372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3573" uniqueCount="1372">
   <si>
     <t>phylum</t>
   </si>
@@ -5763,11 +5763,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O364"/>
+  <dimension ref="A1:O363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K365" sqref="K365"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A362" sqref="A362:XFD362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16573,82 +16573,77 @@
       </c>
     </row>
     <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>253</v>
+      </c>
+      <c r="B362" t="s">
+        <v>262</v>
+      </c>
+      <c r="C362" t="s">
+        <v>300</v>
+      </c>
+      <c r="D362" t="s">
+        <v>301</v>
+      </c>
+      <c r="E362" t="s">
+        <v>307</v>
+      </c>
+      <c r="F362" t="s">
+        <v>313</v>
+      </c>
       <c r="G362" t="s">
-        <v>1366</v>
+        <v>1367</v>
+      </c>
+      <c r="I362" t="s">
+        <v>1369</v>
+      </c>
+      <c r="J362" t="s">
+        <v>1367</v>
+      </c>
+      <c r="K362" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O362" t="s">
+        <v>1368</v>
       </c>
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>253</v>
-      </c>
-      <c r="B363" t="s">
-        <v>262</v>
+        <v>13</v>
       </c>
       <c r="C363" t="s">
-        <v>300</v>
+        <v>14</v>
       </c>
       <c r="D363" t="s">
-        <v>301</v>
+        <v>15</v>
       </c>
       <c r="E363" t="s">
-        <v>307</v>
+        <v>16</v>
       </c>
       <c r="F363" t="s">
-        <v>313</v>
+        <v>193</v>
       </c>
       <c r="G363" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="I363" t="s">
-        <v>1369</v>
+        <v>161</v>
       </c>
       <c r="J363" t="s">
-        <v>1367</v>
-      </c>
-      <c r="K363" s="1" t="s">
-        <v>34</v>
+        <v>1366</v>
+      </c>
+      <c r="K363" t="s">
+        <v>1371</v>
       </c>
       <c r="O363" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>13</v>
-      </c>
-      <c r="C364" t="s">
-        <v>14</v>
-      </c>
-      <c r="D364" t="s">
-        <v>15</v>
-      </c>
-      <c r="E364" t="s">
-        <v>16</v>
-      </c>
-      <c r="F364" t="s">
-        <v>193</v>
-      </c>
-      <c r="G364" t="s">
-        <v>1366</v>
-      </c>
-      <c r="I364" t="s">
-        <v>161</v>
-      </c>
-      <c r="J364" t="s">
-        <v>1366</v>
-      </c>
-      <c r="K364" t="s">
-        <v>1371</v>
-      </c>
-      <c r="O364" t="s">
         <v>1370</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O364"/>
+  <autoFilter ref="A1:O363"/>
   <hyperlinks>
-    <hyperlink ref="F363" r:id="rId1" display="http://algaebase.org/browse/taxonomy/?id=77642"/>
-    <hyperlink ref="E363" r:id="rId2" display="http://algaebase.org/browse/taxonomy/?id=139129"/>
+    <hyperlink ref="F362" r:id="rId1" display="http://algaebase.org/browse/taxonomy/?id=77642"/>
+    <hyperlink ref="E362" r:id="rId2" display="http://algaebase.org/browse/taxonomy/?id=139129"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/output/nla_phyto_taxonomy.xlsx
+++ b/output/nla_phyto_taxonomy.xlsx
@@ -19,7 +19,7 @@
     <sheet name="confusions" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nla_phyto_taxonomy!$A$1:$O$363</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nla_phyto_taxonomy!$A$1:$O$364</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">toxins!$A$1:$J$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">toxLoftin!$A$1:$F$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">toxPaerl!$A$1:$G$13</definedName>
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3573" uniqueCount="1372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3582" uniqueCount="1376">
   <si>
     <t>phylum</t>
   </si>
@@ -4712,6 +4712,18 @@
   </si>
   <si>
     <t>Jaaginema; Jaaginema metaphyticum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isthmochloron      </t>
+  </si>
+  <si>
+    <t>http://algaebase.org/search/genus/detail/?genus_id=n3b49d5b26f060e03&amp;-session=abv4:CC2E5C920ecc92CA46KJD7A08040</t>
+  </si>
+  <si>
+    <t>Skuja, 1948</t>
+  </si>
+  <si>
+    <t>Isthmochloron lobulatum</t>
   </si>
 </sst>
 </file>
@@ -5763,11 +5775,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O363"/>
+  <dimension ref="A1:O364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A362" sqref="A362:XFD362"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11135,7 +11147,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>596</v>
       </c>
@@ -11161,7 +11173,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>517</v>
       </c>
@@ -11190,7 +11202,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>13</v>
       </c>
@@ -11219,7 +11231,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>253</v>
       </c>
@@ -11251,7 +11263,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>13</v>
       </c>
@@ -11280,7 +11292,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>659</v>
       </c>
@@ -11309,7 +11321,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>812</v>
       </c>
@@ -11335,7 +11347,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>659</v>
       </c>
@@ -11364,7 +11376,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>253</v>
       </c>
@@ -11396,201 +11408,213 @@
         <v>34</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>596</v>
+      </c>
+      <c r="C186" t="s">
+        <v>927</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F186" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G186" t="s">
+        <v>1372</v>
+      </c>
+      <c r="I186" t="s">
+        <v>1374</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K186" t="s">
+        <v>1375</v>
+      </c>
+      <c r="O186" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187" t="s">
+        <v>14</v>
+      </c>
+      <c r="D187" t="s">
+        <v>15</v>
+      </c>
+      <c r="E187" t="s">
+        <v>16</v>
+      </c>
+      <c r="F187" t="s">
+        <v>193</v>
+      </c>
+      <c r="G187" t="s">
+        <v>1366</v>
+      </c>
+      <c r="I187" t="s">
+        <v>161</v>
+      </c>
+      <c r="J187" t="s">
+        <v>1366</v>
+      </c>
+      <c r="K187" t="s">
+        <v>1371</v>
+      </c>
+      <c r="O187" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>253</v>
+      </c>
+      <c r="B188" t="s">
+        <v>262</v>
+      </c>
+      <c r="C188" t="s">
+        <v>300</v>
+      </c>
+      <c r="D188" t="s">
+        <v>301</v>
+      </c>
+      <c r="E188" t="s">
+        <v>307</v>
+      </c>
+      <c r="F188" t="s">
+        <v>313</v>
+      </c>
+      <c r="G188" t="s">
+        <v>1367</v>
+      </c>
+      <c r="I188" t="s">
+        <v>1369</v>
+      </c>
+      <c r="J188" t="s">
+        <v>1367</v>
+      </c>
+      <c r="K188" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O188" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>517</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B189" t="s">
         <v>518</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C189" t="s">
         <v>519</v>
       </c>
-      <c r="E186" t="s">
+      <c r="E189" t="s">
         <v>531</v>
       </c>
-      <c r="F186" t="s">
+      <c r="F189" t="s">
         <v>536</v>
       </c>
-      <c r="G186" t="s">
+      <c r="G189" t="s">
         <v>537</v>
       </c>
-      <c r="I186" t="s">
+      <c r="I189" t="s">
         <v>538</v>
       </c>
-      <c r="J186" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K186" s="1" t="s">
+      <c r="J189" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K189" s="1" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>517</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B190" t="s">
         <v>518</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C190" t="s">
         <v>519</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E190" t="s">
         <v>531</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F190" t="s">
         <v>539</v>
       </c>
-      <c r="G187" t="s">
+      <c r="G190" t="s">
         <v>540</v>
       </c>
-      <c r="I187" t="s">
+      <c r="I190" t="s">
         <v>541</v>
       </c>
-      <c r="J187" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K187" s="1" t="s">
+      <c r="J190" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K190" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>596</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C191" t="s">
         <v>604</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E191" t="s">
         <v>605</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F191" t="s">
         <v>610</v>
       </c>
-      <c r="G188" t="s">
+      <c r="G191" t="s">
         <v>614</v>
       </c>
-      <c r="I188" t="s">
+      <c r="I191" t="s">
         <v>615</v>
       </c>
-      <c r="J188" s="1" t="s">
+      <c r="J191" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="K188" s="1" t="s">
+      <c r="K191" s="1" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>659</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B192" t="s">
         <v>660</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C192" t="s">
         <v>661</v>
       </c>
-      <c r="E189" t="s">
+      <c r="E192" t="s">
         <v>662</v>
       </c>
-      <c r="F189" t="s">
+      <c r="F192" t="s">
         <v>666</v>
       </c>
-      <c r="G189" t="s">
+      <c r="G192" t="s">
         <v>742</v>
       </c>
-      <c r="I189" t="s">
+      <c r="I192" t="s">
         <v>743</v>
       </c>
-      <c r="J189" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K189" s="1" t="s">
+      <c r="J192" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K192" s="1" t="s">
         <v>744</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>659</v>
-      </c>
-      <c r="B190" t="s">
-        <v>660</v>
-      </c>
-      <c r="C190" t="s">
-        <v>661</v>
-      </c>
-      <c r="E190" t="s">
-        <v>662</v>
-      </c>
-      <c r="F190" t="s">
-        <v>738</v>
-      </c>
-      <c r="G190" t="s">
-        <v>1181</v>
-      </c>
-      <c r="I190" t="s">
-        <v>1182</v>
-      </c>
-      <c r="J190" s="1" t="s">
-        <v>1181</v>
-      </c>
-      <c r="K190" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>659</v>
-      </c>
-      <c r="B191" t="s">
-        <v>660</v>
-      </c>
-      <c r="C191" t="s">
-        <v>682</v>
-      </c>
-      <c r="E191" t="s">
-        <v>683</v>
-      </c>
-      <c r="F191" t="s">
-        <v>732</v>
-      </c>
-      <c r="G191" t="s">
-        <v>745</v>
-      </c>
-      <c r="I191" t="s">
-        <v>746</v>
-      </c>
-      <c r="J191" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="K191" s="1" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>812</v>
-      </c>
-      <c r="C192" t="s">
-        <v>874</v>
-      </c>
-      <c r="E192" t="s">
-        <v>875</v>
-      </c>
-      <c r="F192" t="s">
-        <v>912</v>
-      </c>
-      <c r="G192" t="s">
-        <v>913</v>
-      </c>
-      <c r="I192" t="s">
-        <v>914</v>
-      </c>
-      <c r="J192" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K192" s="1" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
@@ -11604,80 +11628,80 @@
         <v>661</v>
       </c>
       <c r="E193" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="F193" t="s">
-        <v>678</v>
+        <v>738</v>
       </c>
       <c r="G193" t="s">
-        <v>679</v>
+        <v>1181</v>
       </c>
       <c r="I193" t="s">
-        <v>680</v>
+        <v>1182</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>34</v>
+        <v>1181</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>227</v>
+        <v>659</v>
+      </c>
+      <c r="B194" t="s">
+        <v>660</v>
       </c>
       <c r="C194" t="s">
-        <v>228</v>
+        <v>682</v>
       </c>
       <c r="E194" t="s">
-        <v>229</v>
+        <v>683</v>
       </c>
       <c r="F194" t="s">
-        <v>230</v>
+        <v>732</v>
       </c>
       <c r="G194" t="s">
-        <v>241</v>
+        <v>745</v>
       </c>
       <c r="I194" t="s">
-        <v>242</v>
+        <v>746</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>243</v>
+        <v>747</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>13</v>
+        <v>812</v>
       </c>
       <c r="C195" t="s">
-        <v>14</v>
-      </c>
-      <c r="D195" t="s">
-        <v>23</v>
+        <v>874</v>
       </c>
       <c r="E195" t="s">
-        <v>92</v>
+        <v>875</v>
       </c>
       <c r="F195" t="s">
-        <v>159</v>
+        <v>912</v>
       </c>
       <c r="G195" t="s">
-        <v>160</v>
+        <v>913</v>
       </c>
       <c r="I195" t="s">
-        <v>161</v>
+        <v>914</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>659</v>
       </c>
@@ -11688,57 +11712,51 @@
         <v>661</v>
       </c>
       <c r="E196" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
       <c r="F196" t="s">
-        <v>738</v>
+        <v>678</v>
       </c>
       <c r="G196" t="s">
-        <v>748</v>
+        <v>679</v>
       </c>
       <c r="I196" t="s">
-        <v>749</v>
+        <v>680</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>750</v>
+        <v>34</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="O196" t="s">
-        <v>752</v>
+        <v>681</v>
       </c>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>13</v>
+        <v>227</v>
       </c>
       <c r="C197" t="s">
-        <v>14</v>
-      </c>
-      <c r="D197" t="s">
-        <v>15</v>
+        <v>228</v>
       </c>
       <c r="E197" t="s">
-        <v>16</v>
+        <v>229</v>
       </c>
       <c r="F197" t="s">
-        <v>105</v>
+        <v>230</v>
       </c>
       <c r="G197" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="I197" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>13</v>
       </c>
@@ -11746,57 +11764,60 @@
         <v>14</v>
       </c>
       <c r="D198" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E198" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="F198" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="G198" t="s">
-        <v>1082</v>
+        <v>160</v>
       </c>
       <c r="I198" t="s">
-        <v>224</v>
+        <v>161</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>1083</v>
+        <v>34</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>567</v>
+        <v>659</v>
       </c>
       <c r="B199" t="s">
-        <v>568</v>
+        <v>660</v>
       </c>
       <c r="C199" t="s">
-        <v>569</v>
+        <v>661</v>
       </c>
       <c r="E199" t="s">
-        <v>570</v>
+        <v>662</v>
       </c>
       <c r="F199" t="s">
-        <v>575</v>
+        <v>738</v>
       </c>
       <c r="G199" t="s">
-        <v>576</v>
+        <v>748</v>
       </c>
       <c r="I199" t="s">
-        <v>577</v>
+        <v>749</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>578</v>
+        <v>750</v>
       </c>
       <c r="K199" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="200" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+        <v>751</v>
+      </c>
+      <c r="O199" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>13</v>
       </c>
@@ -11810,22 +11831,19 @@
         <v>16</v>
       </c>
       <c r="F200" t="s">
-        <v>194</v>
+        <v>105</v>
       </c>
       <c r="G200" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="I200" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>197</v>
+        <v>34</v>
       </c>
       <c r="K200" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="O200" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
@@ -11842,318 +11860,321 @@
         <v>16</v>
       </c>
       <c r="F201" t="s">
-        <v>193</v>
+        <v>105</v>
       </c>
       <c r="G201" t="s">
-        <v>200</v>
+        <v>1082</v>
       </c>
       <c r="I201" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>200</v>
+        <v>1083</v>
       </c>
       <c r="K201" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="202" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>567</v>
+      </c>
+      <c r="B202" t="s">
+        <v>568</v>
+      </c>
+      <c r="C202" t="s">
+        <v>569</v>
+      </c>
+      <c r="E202" t="s">
+        <v>570</v>
+      </c>
+      <c r="F202" t="s">
+        <v>575</v>
+      </c>
+      <c r="G202" t="s">
+        <v>576</v>
+      </c>
+      <c r="I202" t="s">
+        <v>577</v>
+      </c>
+      <c r="J202" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="K202" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>13</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C203" t="s">
         <v>14</v>
       </c>
-      <c r="D202" t="s">
-        <v>23</v>
-      </c>
-      <c r="E202" t="s">
-        <v>92</v>
-      </c>
-      <c r="F202" t="s">
-        <v>163</v>
-      </c>
-      <c r="G202" t="s">
-        <v>164</v>
-      </c>
-      <c r="I202" t="s">
-        <v>165</v>
-      </c>
-      <c r="J202" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K202" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="203" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>596</v>
-      </c>
-      <c r="C203" t="s">
-        <v>627</v>
+      <c r="D203" t="s">
+        <v>15</v>
       </c>
       <c r="E203" t="s">
-        <v>628</v>
+        <v>16</v>
       </c>
       <c r="F203" t="s">
-        <v>629</v>
+        <v>194</v>
       </c>
       <c r="G203" t="s">
-        <v>630</v>
+        <v>195</v>
       </c>
       <c r="I203" t="s">
-        <v>595</v>
+        <v>196</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>630</v>
+        <v>197</v>
       </c>
       <c r="K203" s="1" t="s">
-        <v>631</v>
+        <v>198</v>
+      </c>
+      <c r="O203" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>253</v>
-      </c>
-      <c r="B204" t="s">
-        <v>262</v>
+        <v>13</v>
       </c>
       <c r="C204" t="s">
-        <v>300</v>
+        <v>14</v>
       </c>
       <c r="D204" t="s">
-        <v>301</v>
+        <v>15</v>
       </c>
       <c r="E204" t="s">
-        <v>302</v>
+        <v>16</v>
       </c>
       <c r="F204" t="s">
-        <v>424</v>
+        <v>193</v>
       </c>
       <c r="G204" t="s">
-        <v>427</v>
+        <v>200</v>
       </c>
       <c r="I204" t="s">
-        <v>428</v>
+        <v>201</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>427</v>
+        <v>200</v>
       </c>
       <c r="K204" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>253</v>
-      </c>
-      <c r="B205" t="s">
-        <v>254</v>
+        <v>13</v>
       </c>
       <c r="C205" t="s">
-        <v>255</v>
+        <v>14</v>
       </c>
       <c r="D205" t="s">
-        <v>275</v>
+        <v>23</v>
       </c>
       <c r="E205" t="s">
-        <v>276</v>
+        <v>92</v>
       </c>
       <c r="F205" t="s">
-        <v>277</v>
+        <v>163</v>
       </c>
       <c r="G205" t="s">
-        <v>278</v>
+        <v>164</v>
       </c>
       <c r="I205" t="s">
-        <v>279</v>
+        <v>165</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>278</v>
+        <v>166</v>
       </c>
       <c r="K205" s="1" t="s">
-        <v>280</v>
+        <v>167</v>
       </c>
     </row>
     <row r="206" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>596</v>
+      </c>
+      <c r="C206" t="s">
+        <v>627</v>
+      </c>
+      <c r="E206" t="s">
+        <v>628</v>
+      </c>
+      <c r="F206" t="s">
+        <v>629</v>
+      </c>
+      <c r="G206" t="s">
+        <v>630</v>
+      </c>
+      <c r="I206" t="s">
+        <v>595</v>
+      </c>
+      <c r="J206" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="K206" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>253</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B207" t="s">
         <v>262</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C207" t="s">
         <v>300</v>
       </c>
-      <c r="D206" t="s">
-        <v>374</v>
-      </c>
-      <c r="E206" t="s">
-        <v>380</v>
-      </c>
-      <c r="F206" t="s">
-        <v>381</v>
-      </c>
-      <c r="G206" t="s">
-        <v>402</v>
-      </c>
-      <c r="I206" t="s">
-        <v>279</v>
-      </c>
-      <c r="J206" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="K206" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="O206" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="207" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>13</v>
-      </c>
-      <c r="C207" t="s">
-        <v>14</v>
-      </c>
       <c r="D207" t="s">
-        <v>15</v>
+        <v>301</v>
       </c>
       <c r="E207" t="s">
-        <v>16</v>
+        <v>302</v>
       </c>
       <c r="F207" t="s">
-        <v>17</v>
+        <v>424</v>
       </c>
       <c r="G207" t="s">
-        <v>71</v>
+        <v>427</v>
       </c>
       <c r="I207" t="s">
-        <v>72</v>
+        <v>428</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>73</v>
+        <v>427</v>
       </c>
       <c r="K207" s="1" t="s">
-        <v>74</v>
+        <v>429</v>
       </c>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>812</v>
+        <v>253</v>
+      </c>
+      <c r="B208" t="s">
+        <v>254</v>
       </c>
       <c r="C208" t="s">
-        <v>813</v>
+        <v>255</v>
+      </c>
+      <c r="D208" t="s">
+        <v>275</v>
       </c>
       <c r="E208" t="s">
-        <v>1029</v>
+        <v>276</v>
       </c>
       <c r="F208" t="s">
-        <v>1221</v>
+        <v>277</v>
       </c>
       <c r="G208" t="s">
-        <v>1222</v>
+        <v>278</v>
       </c>
       <c r="I208" t="s">
-        <v>39</v>
+        <v>279</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>1222</v>
+        <v>278</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>34</v>
+        <v>280</v>
       </c>
     </row>
     <row r="209" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>659</v>
+        <v>253</v>
       </c>
       <c r="B209" t="s">
-        <v>660</v>
+        <v>262</v>
       </c>
       <c r="C209" t="s">
-        <v>661</v>
+        <v>300</v>
+      </c>
+      <c r="D209" t="s">
+        <v>374</v>
       </c>
       <c r="E209" t="s">
-        <v>662</v>
+        <v>380</v>
       </c>
       <c r="F209" t="s">
-        <v>666</v>
+        <v>381</v>
       </c>
       <c r="G209" t="s">
-        <v>726</v>
+        <v>402</v>
       </c>
       <c r="I209" t="s">
-        <v>727</v>
+        <v>279</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>726</v>
+        <v>402</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="210" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+      <c r="O209" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>13</v>
+      </c>
+      <c r="C210" t="s">
+        <v>14</v>
+      </c>
+      <c r="D210" t="s">
+        <v>15</v>
+      </c>
+      <c r="E210" t="s">
+        <v>16</v>
+      </c>
+      <c r="F210" t="s">
+        <v>17</v>
+      </c>
+      <c r="G210" t="s">
+        <v>71</v>
+      </c>
+      <c r="I210" t="s">
+        <v>72</v>
+      </c>
+      <c r="J210" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K210" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>812</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C211" t="s">
         <v>813</v>
       </c>
-      <c r="E210" t="s">
-        <v>814</v>
-      </c>
-      <c r="F210" t="s">
-        <v>815</v>
-      </c>
-      <c r="G210" t="s">
-        <v>997</v>
-      </c>
-      <c r="I210" t="s">
-        <v>993</v>
-      </c>
-      <c r="J210" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="K210" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="O210" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="211" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>13</v>
-      </c>
-      <c r="C211" t="s">
-        <v>14</v>
-      </c>
-      <c r="D211" t="s">
-        <v>23</v>
-      </c>
       <c r="E211" t="s">
-        <v>24</v>
+        <v>1029</v>
       </c>
       <c r="F211" t="s">
-        <v>61</v>
+        <v>1221</v>
       </c>
       <c r="G211" t="s">
-        <v>88</v>
+        <v>1222</v>
       </c>
       <c r="I211" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>90</v>
+        <v>1222</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>659</v>
       </c>
@@ -12161,208 +12182,202 @@
         <v>660</v>
       </c>
       <c r="C212" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="E212" t="s">
-        <v>683</v>
+        <v>662</v>
       </c>
       <c r="F212" t="s">
-        <v>729</v>
+        <v>666</v>
       </c>
       <c r="G212" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="I212" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>567</v>
-      </c>
-      <c r="B213" t="s">
-        <v>568</v>
+        <v>812</v>
       </c>
       <c r="C213" t="s">
-        <v>569</v>
+        <v>813</v>
       </c>
       <c r="E213" t="s">
-        <v>570</v>
+        <v>814</v>
       </c>
       <c r="F213" t="s">
-        <v>571</v>
+        <v>815</v>
       </c>
       <c r="G213" t="s">
-        <v>580</v>
+        <v>997</v>
       </c>
       <c r="I213" t="s">
-        <v>581</v>
+        <v>993</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>580</v>
+        <v>997</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="214" spans="1:15" ht="165" x14ac:dyDescent="0.25">
+        <v>998</v>
+      </c>
+      <c r="O213" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>659</v>
-      </c>
-      <c r="B214" t="s">
-        <v>660</v>
+        <v>13</v>
       </c>
       <c r="C214" t="s">
-        <v>682</v>
+        <v>14</v>
+      </c>
+      <c r="D214" t="s">
+        <v>23</v>
       </c>
       <c r="E214" t="s">
-        <v>683</v>
+        <v>24</v>
       </c>
       <c r="F214" t="s">
-        <v>732</v>
+        <v>61</v>
       </c>
       <c r="G214" t="s">
-        <v>753</v>
+        <v>88</v>
       </c>
       <c r="I214" t="s">
-        <v>754</v>
+        <v>89</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>753</v>
+        <v>90</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>755</v>
+        <v>91</v>
       </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>812</v>
+        <v>659</v>
+      </c>
+      <c r="B215" t="s">
+        <v>660</v>
       </c>
       <c r="C215" t="s">
-        <v>813</v>
+        <v>682</v>
       </c>
       <c r="E215" t="s">
-        <v>1029</v>
+        <v>683</v>
       </c>
       <c r="F215" t="s">
-        <v>1030</v>
+        <v>729</v>
       </c>
       <c r="G215" t="s">
-        <v>1031</v>
+        <v>730</v>
       </c>
       <c r="I215" t="s">
-        <v>279</v>
+        <v>731</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>1031</v>
+        <v>730</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="O215" t="s">
-        <v>1032</v>
+        <v>730</v>
       </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>567</v>
+      </c>
+      <c r="B216" t="s">
+        <v>568</v>
+      </c>
+      <c r="C216" t="s">
+        <v>569</v>
+      </c>
+      <c r="E216" t="s">
+        <v>570</v>
+      </c>
+      <c r="F216" t="s">
+        <v>571</v>
+      </c>
+      <c r="G216" t="s">
+        <v>580</v>
+      </c>
+      <c r="I216" t="s">
+        <v>581</v>
+      </c>
+      <c r="J216" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="K216" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" ht="165" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>659</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B217" t="s">
         <v>660</v>
       </c>
-      <c r="C216" t="s">
-        <v>661</v>
-      </c>
-      <c r="E216" t="s">
-        <v>662</v>
-      </c>
-      <c r="F216" t="s">
-        <v>666</v>
-      </c>
-      <c r="G216" t="s">
-        <v>701</v>
-      </c>
-      <c r="I216" t="s">
-        <v>702</v>
-      </c>
-      <c r="J216" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="K216" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="217" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>253</v>
-      </c>
-      <c r="B217" t="s">
-        <v>262</v>
-      </c>
       <c r="C217" t="s">
-        <v>300</v>
-      </c>
-      <c r="D217" t="s">
-        <v>301</v>
+        <v>682</v>
       </c>
       <c r="E217" t="s">
-        <v>327</v>
+        <v>683</v>
       </c>
       <c r="F217" t="s">
-        <v>450</v>
+        <v>732</v>
       </c>
       <c r="G217" t="s">
-        <v>453</v>
+        <v>753</v>
       </c>
       <c r="I217" t="s">
-        <v>305</v>
+        <v>754</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>453</v>
+        <v>753</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>454</v>
+        <v>755</v>
       </c>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>253</v>
-      </c>
-      <c r="B218" t="s">
-        <v>262</v>
+        <v>812</v>
       </c>
       <c r="C218" t="s">
-        <v>300</v>
-      </c>
-      <c r="D218" t="s">
-        <v>301</v>
+        <v>813</v>
       </c>
       <c r="E218" t="s">
-        <v>327</v>
+        <v>1029</v>
       </c>
       <c r="F218" t="s">
-        <v>455</v>
+        <v>1030</v>
       </c>
       <c r="G218" t="s">
-        <v>456</v>
+        <v>1031</v>
       </c>
       <c r="I218" t="s">
-        <v>340</v>
+        <v>279</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>456</v>
+        <v>1031</v>
       </c>
       <c r="K218" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="219" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+        <v>1031</v>
+      </c>
+      <c r="O218" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>659</v>
       </c>
@@ -12376,48 +12391,54 @@
         <v>662</v>
       </c>
       <c r="F219" t="s">
-        <v>738</v>
+        <v>666</v>
       </c>
       <c r="G219" t="s">
-        <v>756</v>
+        <v>701</v>
       </c>
       <c r="I219" t="s">
-        <v>39</v>
+        <v>702</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>757</v>
+        <v>701</v>
       </c>
       <c r="K219" s="1" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>812</v>
+        <v>253</v>
+      </c>
+      <c r="B220" t="s">
+        <v>262</v>
       </c>
       <c r="C220" t="s">
-        <v>813</v>
+        <v>300</v>
+      </c>
+      <c r="D220" t="s">
+        <v>301</v>
       </c>
       <c r="E220" t="s">
-        <v>1029</v>
+        <v>327</v>
       </c>
       <c r="F220" t="s">
-        <v>1221</v>
+        <v>450</v>
       </c>
       <c r="G220" t="s">
-        <v>1223</v>
+        <v>453</v>
       </c>
       <c r="I220" t="s">
-        <v>1224</v>
+        <v>305</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>1223</v>
+        <v>453</v>
       </c>
       <c r="K220" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="221" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>253</v>
       </c>
@@ -12431,402 +12452,402 @@
         <v>301</v>
       </c>
       <c r="E221" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="F221" t="s">
-        <v>342</v>
+        <v>455</v>
       </c>
       <c r="G221" t="s">
-        <v>354</v>
+        <v>456</v>
       </c>
       <c r="I221" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>354</v>
+        <v>456</v>
       </c>
       <c r="K221" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>13</v>
+        <v>659</v>
+      </c>
+      <c r="B222" t="s">
+        <v>660</v>
       </c>
       <c r="C222" t="s">
-        <v>14</v>
-      </c>
-      <c r="D222" t="s">
-        <v>109</v>
+        <v>661</v>
       </c>
       <c r="E222" t="s">
-        <v>110</v>
+        <v>662</v>
       </c>
       <c r="F222" t="s">
-        <v>121</v>
+        <v>738</v>
       </c>
       <c r="G222" t="s">
-        <v>140</v>
+        <v>756</v>
       </c>
       <c r="I222" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>140</v>
+        <v>757</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>140</v>
+        <v>758</v>
       </c>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>812</v>
+      </c>
+      <c r="C223" t="s">
+        <v>813</v>
+      </c>
+      <c r="E223" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F223" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G223" t="s">
+        <v>1223</v>
+      </c>
+      <c r="I223" t="s">
+        <v>1224</v>
+      </c>
+      <c r="J223" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="K223" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>253</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B224" t="s">
         <v>262</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C224" t="s">
         <v>300</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D224" t="s">
         <v>301</v>
       </c>
-      <c r="E223" t="s">
-        <v>327</v>
-      </c>
-      <c r="F223" t="s">
-        <v>359</v>
-      </c>
-      <c r="G223" t="s">
-        <v>1153</v>
-      </c>
-      <c r="I223" t="s">
-        <v>1154</v>
-      </c>
-      <c r="J223" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="K223" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>596</v>
-      </c>
-      <c r="C224" t="s">
-        <v>604</v>
-      </c>
       <c r="E224" t="s">
-        <v>605</v>
+        <v>341</v>
       </c>
       <c r="F224" t="s">
-        <v>606</v>
+        <v>342</v>
       </c>
       <c r="G224" t="s">
-        <v>639</v>
+        <v>354</v>
       </c>
       <c r="I224" t="s">
-        <v>640</v>
+        <v>355</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>639</v>
+        <v>354</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>641</v>
+        <v>356</v>
       </c>
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>659</v>
-      </c>
-      <c r="B225" t="s">
-        <v>660</v>
+        <v>13</v>
       </c>
       <c r="C225" t="s">
-        <v>682</v>
+        <v>14</v>
+      </c>
+      <c r="D225" t="s">
+        <v>109</v>
       </c>
       <c r="E225" t="s">
-        <v>823</v>
+        <v>110</v>
       </c>
       <c r="F225" t="s">
-        <v>824</v>
+        <v>121</v>
       </c>
       <c r="G225" t="s">
-        <v>828</v>
+        <v>140</v>
       </c>
       <c r="I225" t="s">
-        <v>829</v>
+        <v>141</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>828</v>
+        <v>140</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="226" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>812</v>
+        <v>253</v>
+      </c>
+      <c r="B226" t="s">
+        <v>262</v>
       </c>
       <c r="C226" t="s">
-        <v>813</v>
+        <v>300</v>
+      </c>
+      <c r="D226" t="s">
+        <v>301</v>
       </c>
       <c r="E226" t="s">
-        <v>814</v>
+        <v>327</v>
       </c>
       <c r="F226" t="s">
-        <v>815</v>
+        <v>359</v>
       </c>
       <c r="G226" t="s">
-        <v>1000</v>
+        <v>1153</v>
       </c>
       <c r="I226" t="s">
-        <v>1001</v>
+        <v>1154</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>34</v>
+        <v>1153</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="227" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>659</v>
-      </c>
-      <c r="B227" t="s">
-        <v>660</v>
+        <v>596</v>
       </c>
       <c r="C227" t="s">
-        <v>661</v>
+        <v>604</v>
       </c>
       <c r="E227" t="s">
-        <v>662</v>
+        <v>605</v>
       </c>
       <c r="F227" t="s">
-        <v>738</v>
+        <v>606</v>
       </c>
       <c r="G227" t="s">
-        <v>759</v>
+        <v>639</v>
       </c>
       <c r="I227" t="s">
-        <v>760</v>
+        <v>640</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>761</v>
+        <v>639</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>762</v>
+        <v>641</v>
       </c>
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>253</v>
+        <v>659</v>
       </c>
       <c r="B228" t="s">
-        <v>262</v>
+        <v>660</v>
       </c>
       <c r="C228" t="s">
-        <v>300</v>
-      </c>
-      <c r="D228" t="s">
-        <v>374</v>
+        <v>682</v>
       </c>
       <c r="E228" t="s">
-        <v>393</v>
+        <v>823</v>
       </c>
       <c r="F228" t="s">
-        <v>394</v>
+        <v>824</v>
       </c>
       <c r="G228" t="s">
-        <v>1147</v>
+        <v>828</v>
       </c>
       <c r="I228" t="s">
-        <v>1148</v>
+        <v>829</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>1147</v>
+        <v>828</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O228" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="229" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>596</v>
+        <v>812</v>
       </c>
       <c r="C229" t="s">
-        <v>927</v>
+        <v>813</v>
       </c>
       <c r="E229" t="s">
-        <v>1038</v>
+        <v>814</v>
       </c>
       <c r="F229" t="s">
-        <v>1043</v>
+        <v>815</v>
       </c>
       <c r="G229" t="s">
-        <v>1044</v>
+        <v>1000</v>
       </c>
       <c r="I229" t="s">
-        <v>39</v>
+        <v>1001</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>1045</v>
+        <v>34</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="230" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>13</v>
+        <v>659</v>
+      </c>
+      <c r="B230" t="s">
+        <v>660</v>
       </c>
       <c r="C230" t="s">
-        <v>14</v>
-      </c>
-      <c r="D230" t="s">
-        <v>23</v>
+        <v>661</v>
       </c>
       <c r="E230" t="s">
-        <v>92</v>
+        <v>662</v>
       </c>
       <c r="F230" t="s">
-        <v>163</v>
+        <v>738</v>
       </c>
       <c r="G230" t="s">
-        <v>168</v>
+        <v>759</v>
       </c>
       <c r="I230" t="s">
-        <v>169</v>
+        <v>760</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>170</v>
+        <v>761</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>171</v>
+        <v>762</v>
       </c>
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>517</v>
+        <v>253</v>
       </c>
       <c r="B231" t="s">
-        <v>518</v>
+        <v>262</v>
       </c>
       <c r="C231" t="s">
-        <v>542</v>
+        <v>300</v>
+      </c>
+      <c r="D231" t="s">
+        <v>374</v>
       </c>
       <c r="E231" t="s">
-        <v>543</v>
+        <v>393</v>
       </c>
       <c r="F231" t="s">
-        <v>544</v>
+        <v>394</v>
       </c>
       <c r="G231" t="s">
-        <v>545</v>
+        <v>1147</v>
       </c>
       <c r="I231" t="s">
-        <v>546</v>
+        <v>1148</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>34</v>
+        <v>1147</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="O231" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>659</v>
-      </c>
-      <c r="B232" t="s">
-        <v>660</v>
+        <v>596</v>
       </c>
       <c r="C232" t="s">
-        <v>682</v>
+        <v>927</v>
       </c>
       <c r="E232" t="s">
-        <v>683</v>
+        <v>1038</v>
       </c>
       <c r="F232" t="s">
-        <v>712</v>
+        <v>1043</v>
       </c>
       <c r="G232" t="s">
-        <v>713</v>
+        <v>1044</v>
       </c>
       <c r="I232" t="s">
-        <v>698</v>
+        <v>39</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>34</v>
+        <v>1045</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>659</v>
-      </c>
-      <c r="B233" t="s">
-        <v>660</v>
+        <v>13</v>
       </c>
       <c r="C233" t="s">
-        <v>682</v>
+        <v>14</v>
+      </c>
+      <c r="D233" t="s">
+        <v>23</v>
       </c>
       <c r="E233" t="s">
-        <v>689</v>
+        <v>92</v>
       </c>
       <c r="F233" t="s">
-        <v>967</v>
+        <v>163</v>
       </c>
       <c r="G233" t="s">
-        <v>974</v>
+        <v>168</v>
       </c>
       <c r="I233" t="s">
-        <v>975</v>
+        <v>169</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>974</v>
+        <v>170</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>976</v>
+        <v>171</v>
       </c>
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>659</v>
+        <v>517</v>
       </c>
       <c r="B234" t="s">
-        <v>660</v>
+        <v>518</v>
       </c>
       <c r="C234" t="s">
-        <v>682</v>
+        <v>542</v>
       </c>
       <c r="E234" t="s">
-        <v>683</v>
+        <v>543</v>
       </c>
       <c r="F234" t="s">
-        <v>695</v>
+        <v>544</v>
       </c>
       <c r="G234" t="s">
-        <v>715</v>
+        <v>545</v>
       </c>
       <c r="I234" t="s">
-        <v>716</v>
+        <v>546</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="235" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>659</v>
       </c>
@@ -12840,222 +12861,222 @@
         <v>683</v>
       </c>
       <c r="F235" t="s">
-        <v>695</v>
+        <v>712</v>
       </c>
       <c r="G235" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="I235" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>720</v>
+        <v>34</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>812</v>
+        <v>659</v>
+      </c>
+      <c r="B236" t="s">
+        <v>660</v>
       </c>
       <c r="C236" t="s">
-        <v>813</v>
+        <v>682</v>
       </c>
       <c r="E236" t="s">
-        <v>814</v>
+        <v>689</v>
       </c>
       <c r="F236" t="s">
-        <v>1003</v>
+        <v>967</v>
       </c>
       <c r="G236" t="s">
-        <v>1004</v>
+        <v>974</v>
       </c>
       <c r="I236" t="s">
-        <v>1005</v>
+        <v>975</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>34</v>
+        <v>974</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>1004</v>
+        <v>976</v>
       </c>
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>517</v>
+        <v>659</v>
       </c>
       <c r="B237" t="s">
-        <v>518</v>
+        <v>660</v>
       </c>
       <c r="C237" t="s">
-        <v>519</v>
+        <v>682</v>
       </c>
       <c r="E237" t="s">
-        <v>520</v>
+        <v>683</v>
       </c>
       <c r="F237" t="s">
-        <v>547</v>
+        <v>695</v>
       </c>
       <c r="G237" t="s">
-        <v>1168</v>
+        <v>715</v>
       </c>
       <c r="I237" t="s">
-        <v>1169</v>
+        <v>716</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>1168</v>
+        <v>34</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="238" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>517</v>
+        <v>659</v>
       </c>
       <c r="B238" t="s">
-        <v>518</v>
+        <v>660</v>
       </c>
       <c r="C238" t="s">
-        <v>519</v>
+        <v>682</v>
       </c>
       <c r="E238" t="s">
-        <v>520</v>
+        <v>683</v>
       </c>
       <c r="F238" t="s">
-        <v>554</v>
+        <v>695</v>
       </c>
       <c r="G238" t="s">
-        <v>555</v>
+        <v>718</v>
       </c>
       <c r="I238" t="s">
-        <v>412</v>
+        <v>719</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>555</v>
+        <v>720</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>556</v>
+        <v>721</v>
       </c>
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>253</v>
-      </c>
-      <c r="B239" t="s">
-        <v>262</v>
+        <v>812</v>
       </c>
       <c r="C239" t="s">
-        <v>300</v>
-      </c>
-      <c r="D239" t="s">
-        <v>387</v>
+        <v>813</v>
       </c>
       <c r="E239" t="s">
-        <v>388</v>
+        <v>814</v>
       </c>
       <c r="F239" t="s">
-        <v>457</v>
+        <v>1003</v>
       </c>
       <c r="G239" t="s">
-        <v>458</v>
+        <v>1004</v>
       </c>
       <c r="I239" t="s">
-        <v>459</v>
+        <v>1005</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>460</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>596</v>
+        <v>517</v>
+      </c>
+      <c r="B240" t="s">
+        <v>518</v>
       </c>
       <c r="C240" t="s">
-        <v>927</v>
+        <v>519</v>
       </c>
       <c r="E240" t="s">
-        <v>1038</v>
+        <v>520</v>
       </c>
       <c r="F240" t="s">
-        <v>1061</v>
+        <v>547</v>
       </c>
       <c r="G240" t="s">
-        <v>1260</v>
+        <v>1168</v>
       </c>
       <c r="I240" t="s">
-        <v>1261</v>
+        <v>1169</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>1260</v>
+        <v>1168</v>
       </c>
       <c r="K240" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O240" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>659</v>
+        <v>517</v>
       </c>
       <c r="B241" t="s">
-        <v>660</v>
+        <v>518</v>
       </c>
       <c r="C241" t="s">
-        <v>682</v>
+        <v>519</v>
       </c>
       <c r="E241" t="s">
-        <v>689</v>
+        <v>520</v>
       </c>
       <c r="F241" t="s">
-        <v>953</v>
+        <v>554</v>
       </c>
       <c r="G241" t="s">
-        <v>1214</v>
+        <v>555</v>
       </c>
       <c r="I241" t="s">
-        <v>595</v>
+        <v>412</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>1214</v>
+        <v>555</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="242" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>567</v>
+        <v>253</v>
       </c>
       <c r="B242" t="s">
-        <v>568</v>
+        <v>262</v>
       </c>
       <c r="C242" t="s">
-        <v>569</v>
+        <v>300</v>
+      </c>
+      <c r="D242" t="s">
+        <v>387</v>
       </c>
       <c r="E242" t="s">
-        <v>570</v>
+        <v>388</v>
       </c>
       <c r="F242" t="s">
-        <v>575</v>
+        <v>457</v>
       </c>
       <c r="G242" t="s">
-        <v>582</v>
+        <v>458</v>
       </c>
       <c r="I242" t="s">
-        <v>583</v>
+        <v>459</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>584</v>
+        <v>34</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>585</v>
+        <v>460</v>
       </c>
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.25">
@@ -13063,147 +13084,144 @@
         <v>596</v>
       </c>
       <c r="C243" t="s">
-        <v>604</v>
+        <v>927</v>
       </c>
       <c r="E243" t="s">
-        <v>605</v>
+        <v>1038</v>
       </c>
       <c r="F243" t="s">
-        <v>1245</v>
+        <v>1061</v>
       </c>
       <c r="G243" t="s">
-        <v>1246</v>
+        <v>1260</v>
       </c>
       <c r="I243" t="s">
-        <v>1247</v>
+        <v>1261</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>1246</v>
+        <v>1260</v>
       </c>
       <c r="K243" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="244" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="O243" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>13</v>
+        <v>659</v>
+      </c>
+      <c r="B244" t="s">
+        <v>660</v>
       </c>
       <c r="C244" t="s">
-        <v>14</v>
-      </c>
-      <c r="D244" t="s">
-        <v>23</v>
+        <v>682</v>
       </c>
       <c r="E244" t="s">
-        <v>92</v>
+        <v>689</v>
       </c>
       <c r="F244" t="s">
-        <v>163</v>
+        <v>953</v>
       </c>
       <c r="G244" t="s">
-        <v>172</v>
-      </c>
-      <c r="H244" s="7" t="s">
-        <v>168</v>
+        <v>1214</v>
       </c>
       <c r="I244" t="s">
-        <v>173</v>
+        <v>595</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>174</v>
+        <v>1214</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>253</v>
+        <v>567</v>
       </c>
       <c r="B245" t="s">
-        <v>262</v>
+        <v>568</v>
       </c>
       <c r="C245" t="s">
-        <v>300</v>
-      </c>
-      <c r="D245" t="s">
-        <v>301</v>
+        <v>569</v>
       </c>
       <c r="E245" t="s">
-        <v>327</v>
+        <v>570</v>
       </c>
       <c r="F245" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
       <c r="G245" t="s">
-        <v>464</v>
+        <v>582</v>
       </c>
       <c r="I245" t="s">
-        <v>284</v>
+        <v>583</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>464</v>
+        <v>584</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>465</v>
+        <v>585</v>
       </c>
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>253</v>
-      </c>
-      <c r="B246" t="s">
-        <v>262</v>
+        <v>596</v>
       </c>
       <c r="C246" t="s">
-        <v>300</v>
-      </c>
-      <c r="D246" t="s">
-        <v>301</v>
+        <v>604</v>
       </c>
       <c r="E246" t="s">
-        <v>337</v>
+        <v>605</v>
       </c>
       <c r="F246" t="s">
-        <v>415</v>
+        <v>1245</v>
       </c>
       <c r="G246" t="s">
-        <v>1139</v>
+        <v>1246</v>
       </c>
       <c r="I246" t="s">
-        <v>1140</v>
+        <v>1247</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>1139</v>
+        <v>1246</v>
       </c>
       <c r="K246" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>227</v>
+        <v>13</v>
       </c>
       <c r="C247" t="s">
-        <v>228</v>
+        <v>14</v>
+      </c>
+      <c r="D247" t="s">
+        <v>23</v>
       </c>
       <c r="E247" t="s">
-        <v>229</v>
+        <v>92</v>
       </c>
       <c r="F247" t="s">
-        <v>245</v>
+        <v>163</v>
       </c>
       <c r="G247" t="s">
-        <v>246</v>
+        <v>172</v>
+      </c>
+      <c r="H247" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="I247" t="s">
-        <v>247</v>
+        <v>173</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>248</v>
+        <v>172</v>
       </c>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.25">
@@ -13223,176 +13241,170 @@
         <v>327</v>
       </c>
       <c r="F248" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G248" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I248" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>34</v>
+        <v>464</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>253</v>
+      </c>
+      <c r="B249" t="s">
+        <v>262</v>
+      </c>
+      <c r="C249" t="s">
+        <v>300</v>
+      </c>
+      <c r="D249" t="s">
+        <v>301</v>
+      </c>
+      <c r="E249" t="s">
+        <v>337</v>
+      </c>
+      <c r="F249" t="s">
+        <v>415</v>
+      </c>
+      <c r="G249" t="s">
+        <v>1139</v>
+      </c>
+      <c r="I249" t="s">
+        <v>1140</v>
+      </c>
+      <c r="J249" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K249" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>227</v>
+      </c>
+      <c r="C250" t="s">
+        <v>228</v>
+      </c>
+      <c r="E250" t="s">
+        <v>229</v>
+      </c>
+      <c r="F250" t="s">
+        <v>245</v>
+      </c>
+      <c r="G250" t="s">
+        <v>246</v>
+      </c>
+      <c r="I250" t="s">
+        <v>247</v>
+      </c>
+      <c r="J250" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K250" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>253</v>
+      </c>
+      <c r="B251" t="s">
+        <v>262</v>
+      </c>
+      <c r="C251" t="s">
+        <v>300</v>
+      </c>
+      <c r="D251" t="s">
+        <v>301</v>
+      </c>
+      <c r="E251" t="s">
+        <v>327</v>
+      </c>
+      <c r="F251" t="s">
+        <v>466</v>
+      </c>
+      <c r="G251" t="s">
+        <v>467</v>
+      </c>
+      <c r="I251" t="s">
+        <v>340</v>
+      </c>
+      <c r="J251" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K251" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>659</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B252" t="s">
         <v>660</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C252" t="s">
         <v>661</v>
       </c>
-      <c r="E249" t="s">
+      <c r="E252" t="s">
         <v>662</v>
       </c>
-      <c r="F249" t="s">
+      <c r="F252" t="s">
         <v>738</v>
       </c>
-      <c r="G249" t="s">
+      <c r="G252" t="s">
         <v>915</v>
       </c>
-      <c r="I249" t="s">
+      <c r="I252" t="s">
         <v>916</v>
       </c>
-      <c r="J249" s="1" t="s">
+      <c r="J252" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="K249" s="1" t="s">
+      <c r="K252" s="1" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="250" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+    <row r="253" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
         <v>13</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C253" t="s">
         <v>14</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D253" t="s">
         <v>15</v>
       </c>
-      <c r="E250" t="s">
+      <c r="E253" t="s">
         <v>16</v>
       </c>
-      <c r="F250" t="s">
+      <c r="F253" t="s">
         <v>194</v>
       </c>
-      <c r="G250" t="s">
+      <c r="G253" t="s">
         <v>203</v>
       </c>
-      <c r="I250" t="s">
+      <c r="I253" t="s">
         <v>196</v>
       </c>
-      <c r="J250" s="1" t="s">
+      <c r="J253" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="K250" s="1" t="s">
+      <c r="K253" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="251" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>659</v>
-      </c>
-      <c r="B251" t="s">
-        <v>660</v>
-      </c>
-      <c r="C251" t="s">
-        <v>682</v>
-      </c>
-      <c r="E251" t="s">
-        <v>683</v>
-      </c>
-      <c r="F251" t="s">
-        <v>763</v>
-      </c>
-      <c r="G251" t="s">
-        <v>764</v>
-      </c>
-      <c r="I251" t="s">
-        <v>765</v>
-      </c>
-      <c r="J251" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="K251" s="1" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="252" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>13</v>
-      </c>
-      <c r="C252" t="s">
-        <v>14</v>
-      </c>
-      <c r="D252" t="s">
-        <v>23</v>
-      </c>
-      <c r="E252" t="s">
-        <v>92</v>
-      </c>
-      <c r="F252" t="s">
-        <v>145</v>
-      </c>
-      <c r="G252" t="s">
-        <v>175</v>
-      </c>
-      <c r="H252" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="I252" t="s">
-        <v>161</v>
-      </c>
-      <c r="J252" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K252" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="253" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>253</v>
-      </c>
-      <c r="B253" t="s">
-        <v>262</v>
-      </c>
-      <c r="C253" t="s">
-        <v>300</v>
-      </c>
-      <c r="D253" t="s">
-        <v>301</v>
-      </c>
-      <c r="E253" t="s">
-        <v>307</v>
-      </c>
-      <c r="F253" t="s">
-        <v>313</v>
-      </c>
-      <c r="G253" t="s">
-        <v>314</v>
-      </c>
-      <c r="I253" t="s">
-        <v>315</v>
-      </c>
-      <c r="J253" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K253" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="O253" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>659</v>
       </c>
@@ -13403,25 +13415,25 @@
         <v>682</v>
       </c>
       <c r="E254" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="F254" t="s">
-        <v>967</v>
+        <v>763</v>
       </c>
       <c r="G254" t="s">
-        <v>1218</v>
+        <v>764</v>
       </c>
       <c r="I254" t="s">
-        <v>1219</v>
+        <v>765</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>1218</v>
+        <v>764</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>13</v>
       </c>
@@ -13435,219 +13447,231 @@
         <v>92</v>
       </c>
       <c r="F255" t="s">
+        <v>145</v>
+      </c>
+      <c r="G255" t="s">
+        <v>175</v>
+      </c>
+      <c r="H255" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I255" t="s">
+        <v>161</v>
+      </c>
+      <c r="J255" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K255" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>253</v>
+      </c>
+      <c r="B256" t="s">
+        <v>262</v>
+      </c>
+      <c r="C256" t="s">
+        <v>300</v>
+      </c>
+      <c r="D256" t="s">
+        <v>301</v>
+      </c>
+      <c r="E256" t="s">
+        <v>307</v>
+      </c>
+      <c r="F256" t="s">
+        <v>313</v>
+      </c>
+      <c r="G256" t="s">
+        <v>314</v>
+      </c>
+      <c r="I256" t="s">
+        <v>315</v>
+      </c>
+      <c r="J256" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K256" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="O256" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>659</v>
+      </c>
+      <c r="B257" t="s">
+        <v>660</v>
+      </c>
+      <c r="C257" t="s">
+        <v>682</v>
+      </c>
+      <c r="E257" t="s">
+        <v>689</v>
+      </c>
+      <c r="F257" t="s">
+        <v>967</v>
+      </c>
+      <c r="G257" t="s">
+        <v>1218</v>
+      </c>
+      <c r="I257" t="s">
+        <v>1219</v>
+      </c>
+      <c r="J257" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="K257" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>13</v>
+      </c>
+      <c r="C258" t="s">
+        <v>14</v>
+      </c>
+      <c r="D258" t="s">
+        <v>23</v>
+      </c>
+      <c r="E258" t="s">
+        <v>92</v>
+      </c>
+      <c r="F258" t="s">
         <v>163</v>
       </c>
-      <c r="G255" t="s">
+      <c r="G258" t="s">
         <v>1099</v>
       </c>
-      <c r="I255" t="s">
+      <c r="I258" t="s">
         <v>1100</v>
       </c>
-      <c r="J255" s="1" t="s">
+      <c r="J258" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="K255" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+      <c r="K258" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
         <v>659</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B259" t="s">
         <v>660</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C259" t="s">
         <v>682</v>
       </c>
-      <c r="E256" t="s">
+      <c r="E259" t="s">
         <v>689</v>
       </c>
-      <c r="F256" t="s">
+      <c r="F259" t="s">
         <v>967</v>
       </c>
-      <c r="G256" t="s">
+      <c r="G259" t="s">
         <v>977</v>
       </c>
-      <c r="I256" t="s">
+      <c r="I259" t="s">
         <v>978</v>
       </c>
-      <c r="J256" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K256" s="1" t="s">
+      <c r="J259" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K259" s="1" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
         <v>596</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C260" t="s">
         <v>927</v>
       </c>
-      <c r="E257" t="s">
+      <c r="E260" t="s">
         <v>1038</v>
       </c>
-      <c r="F257" t="s">
+      <c r="F260" t="s">
         <v>1039</v>
       </c>
-      <c r="G257" t="s">
+      <c r="G260" t="s">
         <v>1263</v>
       </c>
-      <c r="I257" t="s">
+      <c r="I260" t="s">
         <v>1264</v>
       </c>
-      <c r="J257" s="1" t="s">
+      <c r="J260" s="1" t="s">
         <v>1263</v>
       </c>
-      <c r="K257" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+      <c r="K260" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
         <v>253</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B261" t="s">
         <v>262</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C261" t="s">
         <v>300</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D261" t="s">
         <v>301</v>
       </c>
-      <c r="E258" t="s">
+      <c r="E261" t="s">
         <v>327</v>
       </c>
-      <c r="F258" t="s">
+      <c r="F261" t="s">
         <v>470</v>
       </c>
-      <c r="G258" t="s">
+      <c r="G261" t="s">
         <v>471</v>
       </c>
-      <c r="I258" t="s">
+      <c r="I261" t="s">
         <v>472</v>
       </c>
-      <c r="J258" s="1" t="s">
+      <c r="J261" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="K258" s="1" t="s">
+      <c r="K261" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="259" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+    <row r="262" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>812</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C262" t="s">
         <v>813</v>
       </c>
-      <c r="E259" t="s">
+      <c r="E262" t="s">
         <v>814</v>
       </c>
-      <c r="F259" t="s">
+      <c r="F262" t="s">
         <v>815</v>
       </c>
-      <c r="G259" t="s">
+      <c r="G262" t="s">
         <v>1006</v>
       </c>
-      <c r="I259" t="s">
+      <c r="I262" t="s">
         <v>39</v>
       </c>
-      <c r="J259" s="1" t="s">
+      <c r="J262" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="K259" s="1" t="s">
+      <c r="K262" s="1" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>659</v>
-      </c>
-      <c r="B260" t="s">
-        <v>660</v>
-      </c>
-      <c r="C260" t="s">
-        <v>661</v>
-      </c>
-      <c r="E260" t="s">
-        <v>662</v>
-      </c>
-      <c r="F260" t="s">
-        <v>666</v>
-      </c>
-      <c r="G260" t="s">
-        <v>674</v>
-      </c>
-      <c r="I260" t="s">
-        <v>675</v>
-      </c>
-      <c r="J260" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K260" s="1" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>659</v>
-      </c>
-      <c r="B261" t="s">
-        <v>660</v>
-      </c>
-      <c r="C261" t="s">
-        <v>682</v>
-      </c>
-      <c r="E261" t="s">
-        <v>683</v>
-      </c>
-      <c r="F261" t="s">
-        <v>1191</v>
-      </c>
-      <c r="G261" t="s">
-        <v>1192</v>
-      </c>
-      <c r="I261" t="s">
-        <v>1193</v>
-      </c>
-      <c r="J261" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="K261" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>596</v>
-      </c>
-      <c r="C262" t="s">
-        <v>627</v>
-      </c>
-      <c r="E262" t="s">
-        <v>1235</v>
-      </c>
-      <c r="F262" t="s">
-        <v>1236</v>
-      </c>
-      <c r="G262" t="s">
-        <v>1237</v>
-      </c>
-      <c r="I262" t="s">
-        <v>1238</v>
-      </c>
-      <c r="J262" s="1" t="s">
-        <v>1237</v>
-      </c>
-      <c r="K262" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>659</v>
       </c>
@@ -13655,28 +13679,28 @@
         <v>660</v>
       </c>
       <c r="C263" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="E263" t="s">
-        <v>689</v>
+        <v>662</v>
       </c>
       <c r="F263" t="s">
-        <v>935</v>
+        <v>666</v>
       </c>
       <c r="G263" t="s">
-        <v>1208</v>
+        <v>674</v>
       </c>
       <c r="I263" t="s">
-        <v>238</v>
+        <v>675</v>
       </c>
       <c r="J263" s="1" t="s">
-        <v>1208</v>
+        <v>34</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>659</v>
       </c>
@@ -13687,431 +13711,425 @@
         <v>682</v>
       </c>
       <c r="E264" t="s">
+        <v>683</v>
+      </c>
+      <c r="F264" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G264" t="s">
+        <v>1192</v>
+      </c>
+      <c r="I264" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J264" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="K264" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>596</v>
+      </c>
+      <c r="C265" t="s">
+        <v>627</v>
+      </c>
+      <c r="E265" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F265" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G265" t="s">
+        <v>1237</v>
+      </c>
+      <c r="I265" t="s">
+        <v>1238</v>
+      </c>
+      <c r="J265" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="K265" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>659</v>
+      </c>
+      <c r="B266" t="s">
+        <v>660</v>
+      </c>
+      <c r="C266" t="s">
+        <v>682</v>
+      </c>
+      <c r="E266" t="s">
+        <v>689</v>
+      </c>
+      <c r="F266" t="s">
+        <v>935</v>
+      </c>
+      <c r="G266" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I266" t="s">
+        <v>238</v>
+      </c>
+      <c r="J266" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="K266" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>659</v>
+      </c>
+      <c r="B267" t="s">
+        <v>660</v>
+      </c>
+      <c r="C267" t="s">
+        <v>682</v>
+      </c>
+      <c r="E267" t="s">
         <v>1170</v>
       </c>
-      <c r="F264" t="s">
+      <c r="F267" t="s">
         <v>1171</v>
       </c>
-      <c r="G264" t="s">
+      <c r="G267" t="s">
         <v>1172</v>
       </c>
-      <c r="I264" t="s">
+      <c r="I267" t="s">
         <v>806</v>
       </c>
-      <c r="J264" s="1" t="s">
+      <c r="J267" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="K264" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+      <c r="K267" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
         <v>517</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B268" t="s">
         <v>518</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C268" t="s">
         <v>519</v>
       </c>
-      <c r="E265" t="s">
+      <c r="E268" t="s">
         <v>520</v>
       </c>
-      <c r="F265" t="s">
+      <c r="F268" t="s">
         <v>560</v>
       </c>
-      <c r="G265" t="s">
+      <c r="G268" t="s">
         <v>561</v>
       </c>
-      <c r="I265" t="s">
+      <c r="I268" t="s">
         <v>562</v>
       </c>
-      <c r="J265" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K265" s="1" t="s">
+      <c r="J268" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K268" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="266" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+    <row r="269" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
         <v>253</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B269" t="s">
         <v>262</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C269" t="s">
         <v>300</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D269" t="s">
         <v>301</v>
       </c>
-      <c r="E266" t="s">
+      <c r="E269" t="s">
         <v>307</v>
       </c>
-      <c r="F266" t="s">
+      <c r="F269" t="s">
         <v>313</v>
       </c>
-      <c r="G266" t="s">
+      <c r="G269" t="s">
         <v>318</v>
       </c>
-      <c r="I266" t="s">
+      <c r="I269" t="s">
         <v>319</v>
       </c>
-      <c r="J266" s="1" t="s">
+      <c r="J269" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="K266" s="1" t="s">
+      <c r="K269" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="267" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+    <row r="270" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
         <v>13</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C270" t="s">
         <v>14</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D270" t="s">
         <v>15</v>
       </c>
-      <c r="E267" t="s">
+      <c r="E270" t="s">
         <v>16</v>
       </c>
-      <c r="F267" t="s">
+      <c r="F270" t="s">
         <v>193</v>
       </c>
-      <c r="G267" t="s">
+      <c r="G270" t="s">
         <v>206</v>
       </c>
-      <c r="I267" t="s">
+      <c r="I270" t="s">
         <v>207</v>
       </c>
-      <c r="J267" s="1" t="s">
+      <c r="J270" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="K267" s="1" t="s">
+      <c r="K270" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="268" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+    <row r="271" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
         <v>596</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C271" t="s">
         <v>604</v>
       </c>
-      <c r="E268" t="s">
+      <c r="E271" t="s">
         <v>605</v>
       </c>
-      <c r="F268" t="s">
+      <c r="F271" t="s">
         <v>610</v>
       </c>
-      <c r="G268" t="s">
+      <c r="G271" t="s">
         <v>611</v>
       </c>
-      <c r="I268" t="s">
+      <c r="I271" t="s">
         <v>612</v>
       </c>
-      <c r="J268" s="1" t="s">
+      <c r="J271" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="K268" s="1" t="s">
+      <c r="K271" s="1" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>596</v>
-      </c>
-      <c r="C269" t="s">
-        <v>635</v>
-      </c>
-      <c r="E269" t="s">
-        <v>643</v>
-      </c>
-      <c r="F269" t="s">
-        <v>644</v>
-      </c>
-      <c r="G269" t="s">
-        <v>645</v>
-      </c>
-      <c r="I269" t="s">
-        <v>646</v>
-      </c>
-      <c r="J269" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K269" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="270" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>596</v>
-      </c>
-      <c r="C270" t="s">
-        <v>597</v>
-      </c>
-      <c r="E270" t="s">
-        <v>598</v>
-      </c>
-      <c r="F270" t="s">
-        <v>599</v>
-      </c>
-      <c r="G270" t="s">
-        <v>600</v>
-      </c>
-      <c r="I270" t="s">
-        <v>601</v>
-      </c>
-      <c r="J270" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="K270" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="271" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>253</v>
-      </c>
-      <c r="B271" t="s">
-        <v>262</v>
-      </c>
-      <c r="C271" t="s">
-        <v>300</v>
-      </c>
-      <c r="D271" t="s">
-        <v>374</v>
-      </c>
-      <c r="E271" t="s">
-        <v>393</v>
-      </c>
-      <c r="F271" t="s">
-        <v>394</v>
-      </c>
-      <c r="G271" t="s">
-        <v>405</v>
-      </c>
-      <c r="I271" t="s">
-        <v>401</v>
-      </c>
-      <c r="J271" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="K271" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="272" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>596</v>
       </c>
       <c r="C272" t="s">
-        <v>927</v>
+        <v>635</v>
       </c>
       <c r="E272" t="s">
-        <v>1038</v>
+        <v>643</v>
       </c>
       <c r="F272" t="s">
-        <v>1051</v>
+        <v>644</v>
       </c>
       <c r="G272" t="s">
-        <v>1056</v>
-      </c>
-      <c r="H272" t="s">
-        <v>1057</v>
+        <v>645</v>
       </c>
       <c r="I272" t="s">
-        <v>1058</v>
+        <v>646</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="O272" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>253</v>
-      </c>
-      <c r="B273" t="s">
-        <v>262</v>
+        <v>596</v>
       </c>
       <c r="C273" t="s">
-        <v>263</v>
-      </c>
-      <c r="D273" t="s">
-        <v>286</v>
+        <v>597</v>
       </c>
       <c r="E273" t="s">
-        <v>287</v>
+        <v>598</v>
       </c>
       <c r="F273" t="s">
-        <v>288</v>
+        <v>599</v>
       </c>
       <c r="G273" t="s">
-        <v>293</v>
+        <v>600</v>
       </c>
       <c r="I273" t="s">
-        <v>294</v>
+        <v>601</v>
       </c>
       <c r="J273" s="1" t="s">
-        <v>295</v>
+        <v>602</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>296</v>
+        <v>603</v>
       </c>
     </row>
     <row r="274" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>253</v>
+      </c>
+      <c r="B274" t="s">
+        <v>262</v>
+      </c>
+      <c r="C274" t="s">
+        <v>300</v>
+      </c>
+      <c r="D274" t="s">
+        <v>374</v>
+      </c>
+      <c r="E274" t="s">
+        <v>393</v>
+      </c>
+      <c r="F274" t="s">
+        <v>394</v>
+      </c>
+      <c r="G274" t="s">
+        <v>405</v>
+      </c>
+      <c r="I274" t="s">
+        <v>401</v>
+      </c>
+      <c r="J274" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="K274" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>596</v>
+      </c>
+      <c r="C275" t="s">
+        <v>927</v>
+      </c>
+      <c r="E275" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F275" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G275" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H275" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I275" t="s">
+        <v>1058</v>
+      </c>
+      <c r="J275" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K275" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="O275" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>253</v>
+      </c>
+      <c r="B276" t="s">
+        <v>262</v>
+      </c>
+      <c r="C276" t="s">
+        <v>263</v>
+      </c>
+      <c r="D276" t="s">
+        <v>286</v>
+      </c>
+      <c r="E276" t="s">
+        <v>287</v>
+      </c>
+      <c r="F276" t="s">
+        <v>288</v>
+      </c>
+      <c r="G276" t="s">
+        <v>293</v>
+      </c>
+      <c r="I276" t="s">
+        <v>294</v>
+      </c>
+      <c r="J276" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K276" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
         <v>227</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C277" t="s">
         <v>228</v>
       </c>
-      <c r="E274" t="s">
+      <c r="E277" t="s">
         <v>229</v>
       </c>
-      <c r="F274" t="s">
+      <c r="F277" t="s">
         <v>249</v>
       </c>
-      <c r="G274" t="s">
+      <c r="G277" t="s">
         <v>959</v>
       </c>
-      <c r="I274" t="s">
+      <c r="I277" t="s">
         <v>960</v>
       </c>
-      <c r="J274" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K274" s="1" t="s">
+      <c r="J277" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K277" s="1" t="s">
         <v>961</v>
-      </c>
-    </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>227</v>
-      </c>
-      <c r="C275" t="s">
-        <v>228</v>
-      </c>
-      <c r="E275" t="s">
-        <v>229</v>
-      </c>
-      <c r="F275" t="s">
-        <v>249</v>
-      </c>
-      <c r="G275" t="s">
-        <v>1113</v>
-      </c>
-      <c r="I275" t="s">
-        <v>960</v>
-      </c>
-      <c r="J275" s="1" t="s">
-        <v>1113</v>
-      </c>
-      <c r="K275" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="276" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>659</v>
-      </c>
-      <c r="B276" t="s">
-        <v>660</v>
-      </c>
-      <c r="C276" t="s">
-        <v>682</v>
-      </c>
-      <c r="E276" t="s">
-        <v>683</v>
-      </c>
-      <c r="F276" t="s">
-        <v>732</v>
-      </c>
-      <c r="G276" t="s">
-        <v>767</v>
-      </c>
-      <c r="I276" t="s">
-        <v>768</v>
-      </c>
-      <c r="J276" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="K276" s="1" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>659</v>
-      </c>
-      <c r="B277" t="s">
-        <v>660</v>
-      </c>
-      <c r="C277" t="s">
-        <v>682</v>
-      </c>
-      <c r="E277" t="s">
-        <v>683</v>
-      </c>
-      <c r="F277" t="s">
-        <v>712</v>
-      </c>
-      <c r="G277" t="s">
-        <v>895</v>
-      </c>
-      <c r="I277" t="s">
-        <v>896</v>
-      </c>
-      <c r="J277" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="K277" s="1" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>13</v>
+        <v>227</v>
       </c>
       <c r="C278" t="s">
-        <v>14</v>
-      </c>
-      <c r="D278" t="s">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="E278" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="F278" t="s">
-        <v>61</v>
+        <v>249</v>
       </c>
       <c r="G278" t="s">
-        <v>62</v>
+        <v>1113</v>
       </c>
       <c r="I278" t="s">
-        <v>63</v>
+        <v>960</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>34</v>
+        <v>1113</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O278" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>659</v>
       </c>
@@ -14125,83 +14143,80 @@
         <v>683</v>
       </c>
       <c r="F279" t="s">
-        <v>918</v>
+        <v>732</v>
       </c>
       <c r="G279" t="s">
-        <v>919</v>
+        <v>767</v>
       </c>
       <c r="I279" t="s">
-        <v>920</v>
+        <v>768</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>34</v>
+        <v>769</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="O279" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="280" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>13</v>
+        <v>659</v>
+      </c>
+      <c r="B280" t="s">
+        <v>660</v>
       </c>
       <c r="C280" t="s">
-        <v>14</v>
-      </c>
-      <c r="D280" t="s">
-        <v>109</v>
+        <v>682</v>
       </c>
       <c r="E280" t="s">
-        <v>110</v>
+        <v>683</v>
       </c>
       <c r="F280" t="s">
-        <v>121</v>
+        <v>712</v>
       </c>
       <c r="G280" t="s">
-        <v>142</v>
+        <v>895</v>
       </c>
       <c r="I280" t="s">
-        <v>143</v>
+        <v>896</v>
       </c>
       <c r="J280" s="1" t="s">
-        <v>142</v>
+        <v>895</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>144</v>
+        <v>897</v>
       </c>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>659</v>
-      </c>
-      <c r="B281" t="s">
-        <v>660</v>
+        <v>13</v>
       </c>
       <c r="C281" t="s">
-        <v>682</v>
+        <v>14</v>
+      </c>
+      <c r="D281" t="s">
+        <v>23</v>
       </c>
       <c r="E281" t="s">
-        <v>683</v>
+        <v>24</v>
       </c>
       <c r="F281" t="s">
-        <v>732</v>
+        <v>61</v>
       </c>
       <c r="G281" t="s">
-        <v>870</v>
+        <v>62</v>
       </c>
       <c r="I281" t="s">
-        <v>871</v>
+        <v>63</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>872</v>
+        <v>64</v>
       </c>
       <c r="O281" t="s">
-        <v>873</v>
+        <v>65</v>
       </c>
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.25">
@@ -14212,31 +14227,31 @@
         <v>660</v>
       </c>
       <c r="C282" t="s">
-        <v>661</v>
+        <v>682</v>
       </c>
       <c r="E282" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="F282" t="s">
-        <v>678</v>
+        <v>918</v>
       </c>
       <c r="G282" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="I282" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="O282" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>13</v>
       </c>
@@ -14244,417 +14259,423 @@
         <v>14</v>
       </c>
       <c r="D283" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="E283" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="F283" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="G283" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="I283" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="J283" s="1" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>13</v>
+        <v>659</v>
+      </c>
+      <c r="B284" t="s">
+        <v>660</v>
       </c>
       <c r="C284" t="s">
-        <v>14</v>
-      </c>
-      <c r="D284" t="s">
-        <v>23</v>
+        <v>682</v>
       </c>
       <c r="E284" t="s">
-        <v>24</v>
+        <v>683</v>
       </c>
       <c r="F284" t="s">
-        <v>31</v>
+        <v>732</v>
       </c>
       <c r="G284" t="s">
-        <v>1084</v>
-      </c>
-      <c r="H284" t="s">
-        <v>51</v>
+        <v>870</v>
       </c>
       <c r="I284" t="s">
-        <v>1085</v>
+        <v>871</v>
       </c>
       <c r="J284" s="1" t="s">
-        <v>1086</v>
+        <v>34</v>
       </c>
       <c r="K284" s="1" t="s">
-        <v>34</v>
+        <v>872</v>
       </c>
       <c r="O284" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="285" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>13</v>
+        <v>659</v>
+      </c>
+      <c r="B285" t="s">
+        <v>660</v>
       </c>
       <c r="C285" t="s">
-        <v>14</v>
-      </c>
-      <c r="D285" t="s">
-        <v>23</v>
+        <v>661</v>
       </c>
       <c r="E285" t="s">
-        <v>24</v>
+        <v>677</v>
       </c>
       <c r="F285" t="s">
-        <v>61</v>
+        <v>678</v>
       </c>
       <c r="G285" t="s">
-        <v>102</v>
-      </c>
-      <c r="H285" t="s">
-        <v>51</v>
+        <v>923</v>
       </c>
       <c r="I285" t="s">
-        <v>103</v>
+        <v>924</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K285" s="1" t="s">
-        <v>104</v>
+        <v>925</v>
+      </c>
+      <c r="O285" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>659</v>
-      </c>
-      <c r="B286" t="s">
-        <v>660</v>
+        <v>13</v>
       </c>
       <c r="C286" t="s">
-        <v>802</v>
+        <v>14</v>
+      </c>
+      <c r="D286" t="s">
+        <v>15</v>
       </c>
       <c r="E286" t="s">
-        <v>803</v>
+        <v>16</v>
       </c>
       <c r="F286" t="s">
-        <v>804</v>
+        <v>98</v>
       </c>
       <c r="G286" t="s">
-        <v>808</v>
+        <v>99</v>
       </c>
       <c r="I286" t="s">
-        <v>806</v>
+        <v>100</v>
       </c>
       <c r="J286" s="1" t="s">
-        <v>808</v>
+        <v>101</v>
       </c>
       <c r="K286" s="1" t="s">
-        <v>808</v>
+        <v>101</v>
       </c>
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>253</v>
-      </c>
-      <c r="B287" t="s">
-        <v>254</v>
+        <v>13</v>
       </c>
       <c r="C287" t="s">
-        <v>255</v>
+        <v>14</v>
+      </c>
+      <c r="D287" t="s">
+        <v>23</v>
       </c>
       <c r="E287" t="s">
-        <v>281</v>
+        <v>24</v>
       </c>
       <c r="F287" t="s">
-        <v>282</v>
+        <v>31</v>
       </c>
       <c r="G287" t="s">
-        <v>283</v>
+        <v>1084</v>
+      </c>
+      <c r="H287" t="s">
+        <v>51</v>
       </c>
       <c r="I287" t="s">
-        <v>284</v>
+        <v>1085</v>
       </c>
       <c r="J287" s="1" t="s">
-        <v>34</v>
+        <v>1086</v>
       </c>
       <c r="K287" s="1" t="s">
-        <v>283</v>
+        <v>34</v>
       </c>
       <c r="O287" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>227</v>
+        <v>13</v>
       </c>
       <c r="C288" t="s">
-        <v>228</v>
+        <v>14</v>
+      </c>
+      <c r="D288" t="s">
+        <v>23</v>
       </c>
       <c r="E288" t="s">
-        <v>229</v>
+        <v>24</v>
       </c>
       <c r="F288" t="s">
-        <v>249</v>
+        <v>61</v>
       </c>
       <c r="G288" t="s">
-        <v>250</v>
+        <v>102</v>
+      </c>
+      <c r="H288" t="s">
+        <v>51</v>
       </c>
       <c r="I288" t="s">
-        <v>251</v>
+        <v>103</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K288" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>253</v>
+        <v>659</v>
       </c>
       <c r="B289" t="s">
-        <v>262</v>
+        <v>660</v>
       </c>
       <c r="C289" t="s">
-        <v>300</v>
-      </c>
-      <c r="D289" t="s">
-        <v>301</v>
+        <v>802</v>
       </c>
       <c r="E289" t="s">
-        <v>337</v>
+        <v>803</v>
       </c>
       <c r="F289" t="s">
-        <v>421</v>
+        <v>804</v>
       </c>
       <c r="G289" t="s">
-        <v>473</v>
+        <v>808</v>
       </c>
       <c r="I289" t="s">
-        <v>474</v>
+        <v>806</v>
       </c>
       <c r="J289" s="1" t="s">
-        <v>473</v>
+        <v>808</v>
       </c>
       <c r="K289" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>253</v>
       </c>
       <c r="B290" t="s">
+        <v>254</v>
+      </c>
+      <c r="C290" t="s">
+        <v>255</v>
+      </c>
+      <c r="E290" t="s">
+        <v>281</v>
+      </c>
+      <c r="F290" t="s">
+        <v>282</v>
+      </c>
+      <c r="G290" t="s">
+        <v>283</v>
+      </c>
+      <c r="I290" t="s">
+        <v>284</v>
+      </c>
+      <c r="J290" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K290" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="O290" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>227</v>
+      </c>
+      <c r="C291" t="s">
+        <v>228</v>
+      </c>
+      <c r="E291" t="s">
+        <v>229</v>
+      </c>
+      <c r="F291" t="s">
+        <v>249</v>
+      </c>
+      <c r="G291" t="s">
+        <v>250</v>
+      </c>
+      <c r="I291" t="s">
+        <v>251</v>
+      </c>
+      <c r="J291" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K291" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>253</v>
+      </c>
+      <c r="B292" t="s">
         <v>262</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C292" t="s">
         <v>300</v>
       </c>
-      <c r="D290" t="s">
+      <c r="D292" t="s">
         <v>301</v>
       </c>
-      <c r="E290" t="s">
+      <c r="E292" t="s">
+        <v>337</v>
+      </c>
+      <c r="F292" t="s">
+        <v>421</v>
+      </c>
+      <c r="G292" t="s">
+        <v>473</v>
+      </c>
+      <c r="I292" t="s">
+        <v>474</v>
+      </c>
+      <c r="J292" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="K292" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>253</v>
+      </c>
+      <c r="B293" t="s">
+        <v>262</v>
+      </c>
+      <c r="C293" t="s">
+        <v>300</v>
+      </c>
+      <c r="D293" t="s">
+        <v>301</v>
+      </c>
+      <c r="E293" t="s">
         <v>476</v>
       </c>
-      <c r="F290" t="s">
+      <c r="F293" t="s">
         <v>477</v>
       </c>
-      <c r="G290" t="s">
+      <c r="G293" t="s">
         <v>481</v>
       </c>
-      <c r="I290" t="s">
+      <c r="I293" t="s">
         <v>482</v>
       </c>
-      <c r="J290" s="1" t="s">
+      <c r="J293" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="K290" s="1" t="s">
+      <c r="K293" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
         <v>13</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C294" t="s">
         <v>14</v>
       </c>
-      <c r="D291" t="s">
+      <c r="D294" t="s">
         <v>109</v>
       </c>
-      <c r="E291" t="s">
+      <c r="E294" t="s">
         <v>110</v>
       </c>
-      <c r="F291" t="s">
+      <c r="F294" t="s">
         <v>149</v>
       </c>
-      <c r="G291" t="s">
+      <c r="G294" t="s">
         <v>158</v>
       </c>
-      <c r="I291" t="s">
+      <c r="I294" t="s">
         <v>151</v>
       </c>
-      <c r="J291" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K291" s="1" t="s">
+      <c r="J294" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K294" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="292" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+    <row r="295" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
         <v>13</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C295" t="s">
         <v>14</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D295" t="s">
         <v>15</v>
       </c>
-      <c r="E292" t="s">
+      <c r="E295" t="s">
         <v>16</v>
       </c>
-      <c r="F292" t="s">
+      <c r="F295" t="s">
         <v>210</v>
       </c>
-      <c r="G292" t="s">
+      <c r="G295" t="s">
         <v>211</v>
       </c>
-      <c r="I292" t="s">
+      <c r="I295" t="s">
         <v>212</v>
       </c>
-      <c r="J292" s="1" t="s">
+      <c r="J295" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K292" s="1" t="s">
+      <c r="K295" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
         <v>812</v>
       </c>
-      <c r="C293" t="s">
+      <c r="C296" t="s">
         <v>813</v>
       </c>
-      <c r="E293" t="s">
+      <c r="E296" t="s">
         <v>1029</v>
       </c>
-      <c r="F293" t="s">
+      <c r="F296" t="s">
         <v>1221</v>
       </c>
-      <c r="G293" t="s">
+      <c r="G296" t="s">
         <v>1225</v>
       </c>
-      <c r="I293" t="s">
+      <c r="I296" t="s">
         <v>1226</v>
       </c>
-      <c r="J293" s="1" t="s">
+      <c r="J296" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="K293" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11" ht="240" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>659</v>
-      </c>
-      <c r="B294" t="s">
-        <v>660</v>
-      </c>
-      <c r="C294" t="s">
-        <v>682</v>
-      </c>
-      <c r="E294" t="s">
-        <v>683</v>
-      </c>
-      <c r="F294" t="s">
-        <v>778</v>
-      </c>
-      <c r="G294" t="s">
-        <v>796</v>
-      </c>
-      <c r="I294" t="s">
-        <v>719</v>
-      </c>
-      <c r="J294" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="K294" s="1" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>659</v>
-      </c>
-      <c r="B295" t="s">
-        <v>660</v>
-      </c>
-      <c r="C295" t="s">
-        <v>682</v>
-      </c>
-      <c r="E295" t="s">
-        <v>683</v>
-      </c>
-      <c r="F295" t="s">
-        <v>763</v>
-      </c>
-      <c r="G295" t="s">
-        <v>898</v>
-      </c>
-      <c r="I295" t="s">
-        <v>899</v>
-      </c>
-      <c r="J295" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K295" s="1" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>13</v>
-      </c>
-      <c r="C296" t="s">
-        <v>14</v>
-      </c>
-      <c r="D296" t="s">
-        <v>15</v>
-      </c>
-      <c r="E296" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F296" t="s">
-        <v>1106</v>
-      </c>
-      <c r="G296" t="s">
-        <v>1107</v>
-      </c>
-      <c r="I296" t="s">
-        <v>1108</v>
-      </c>
-      <c r="J296" s="1" t="s">
-        <v>1107</v>
-      </c>
       <c r="K296" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="297" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" ht="240" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>659</v>
       </c>
@@ -14668,22 +14689,22 @@
         <v>683</v>
       </c>
       <c r="F297" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="G297" t="s">
-        <v>772</v>
+        <v>796</v>
       </c>
       <c r="I297" t="s">
-        <v>773</v>
+        <v>719</v>
       </c>
       <c r="J297" s="1" t="s">
-        <v>772</v>
+        <v>797</v>
       </c>
       <c r="K297" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>659</v>
       </c>
@@ -14691,57 +14712,57 @@
         <v>660</v>
       </c>
       <c r="C298" t="s">
-        <v>1209</v>
+        <v>682</v>
       </c>
       <c r="E298" t="s">
-        <v>1210</v>
+        <v>683</v>
       </c>
       <c r="F298" t="s">
-        <v>1211</v>
+        <v>763</v>
       </c>
       <c r="G298" t="s">
-        <v>1212</v>
+        <v>898</v>
       </c>
       <c r="I298" t="s">
-        <v>1213</v>
+        <v>899</v>
       </c>
       <c r="J298" s="1" t="s">
-        <v>1212</v>
+        <v>34</v>
       </c>
       <c r="K298" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>517</v>
-      </c>
-      <c r="B299" t="s">
-        <v>518</v>
+        <v>13</v>
       </c>
       <c r="C299" t="s">
-        <v>519</v>
+        <v>14</v>
+      </c>
+      <c r="D299" t="s">
+        <v>15</v>
       </c>
       <c r="E299" t="s">
-        <v>520</v>
+        <v>1105</v>
       </c>
       <c r="F299" t="s">
-        <v>521</v>
+        <v>1106</v>
       </c>
       <c r="G299" t="s">
-        <v>557</v>
+        <v>1107</v>
       </c>
       <c r="I299" t="s">
-        <v>558</v>
+        <v>1108</v>
       </c>
       <c r="J299" s="1" t="s">
-        <v>34</v>
+        <v>1107</v>
       </c>
       <c r="K299" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="300" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>659</v>
       </c>
@@ -14755,205 +14776,202 @@
         <v>683</v>
       </c>
       <c r="F300" t="s">
+        <v>771</v>
+      </c>
+      <c r="G300" t="s">
+        <v>772</v>
+      </c>
+      <c r="I300" t="s">
+        <v>773</v>
+      </c>
+      <c r="J300" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="K300" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>659</v>
+      </c>
+      <c r="B301" t="s">
+        <v>660</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E301" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F301" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G301" t="s">
+        <v>1212</v>
+      </c>
+      <c r="I301" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J301" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="K301" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>517</v>
+      </c>
+      <c r="B302" t="s">
+        <v>518</v>
+      </c>
+      <c r="C302" t="s">
+        <v>519</v>
+      </c>
+      <c r="E302" t="s">
+        <v>520</v>
+      </c>
+      <c r="F302" t="s">
+        <v>521</v>
+      </c>
+      <c r="G302" t="s">
+        <v>557</v>
+      </c>
+      <c r="I302" t="s">
+        <v>558</v>
+      </c>
+      <c r="J302" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K302" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>659</v>
+      </c>
+      <c r="B303" t="s">
+        <v>660</v>
+      </c>
+      <c r="C303" t="s">
+        <v>682</v>
+      </c>
+      <c r="E303" t="s">
+        <v>683</v>
+      </c>
+      <c r="F303" t="s">
         <v>732</v>
       </c>
-      <c r="G300" t="s">
+      <c r="G303" t="s">
         <v>775</v>
       </c>
-      <c r="I300" t="s">
+      <c r="I303" t="s">
         <v>776</v>
       </c>
-      <c r="J300" s="1" t="s">
+      <c r="J303" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="K300" s="1" t="s">
+      <c r="K303" s="1" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+    <row r="304" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
         <v>253</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B304" t="s">
         <v>262</v>
       </c>
-      <c r="C301" t="s">
+      <c r="C304" t="s">
         <v>300</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D304" t="s">
         <v>301</v>
       </c>
-      <c r="E301" t="s">
+      <c r="E304" t="s">
         <v>327</v>
       </c>
-      <c r="F301" t="s">
+      <c r="F304" t="s">
         <v>484</v>
       </c>
-      <c r="G301" t="s">
+      <c r="G304" t="s">
         <v>485</v>
       </c>
-      <c r="I301" t="s">
+      <c r="I304" t="s">
         <v>486</v>
       </c>
-      <c r="J301" s="1" t="s">
+      <c r="J304" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="K301" s="1" t="s">
+      <c r="K304" s="1" t="s">
         <v>487</v>
-      </c>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>253</v>
-      </c>
-      <c r="B302" t="s">
-        <v>262</v>
-      </c>
-      <c r="C302" t="s">
-        <v>263</v>
-      </c>
-      <c r="D302" t="s">
-        <v>286</v>
-      </c>
-      <c r="E302" t="s">
-        <v>1127</v>
-      </c>
-      <c r="F302" t="s">
-        <v>1128</v>
-      </c>
-      <c r="G302" t="s">
-        <v>1129</v>
-      </c>
-      <c r="I302" t="s">
-        <v>1130</v>
-      </c>
-      <c r="J302" s="1" t="s">
-        <v>1129</v>
-      </c>
-      <c r="K302" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="303" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>13</v>
-      </c>
-      <c r="C303" t="s">
-        <v>14</v>
-      </c>
-      <c r="D303" t="s">
-        <v>15</v>
-      </c>
-      <c r="E303" t="s">
-        <v>16</v>
-      </c>
-      <c r="F303" t="s">
-        <v>43</v>
-      </c>
-      <c r="G303" t="s">
-        <v>75</v>
-      </c>
-      <c r="I303" t="s">
-        <v>76</v>
-      </c>
-      <c r="J303" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K303" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>659</v>
-      </c>
-      <c r="B304" t="s">
-        <v>660</v>
-      </c>
-      <c r="C304" t="s">
-        <v>682</v>
-      </c>
-      <c r="E304" t="s">
-        <v>683</v>
-      </c>
-      <c r="F304" t="s">
-        <v>695</v>
-      </c>
-      <c r="G304" t="s">
-        <v>844</v>
-      </c>
-      <c r="I304" t="s">
-        <v>698</v>
-      </c>
-      <c r="J304" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="K304" s="1" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>659</v>
+        <v>253</v>
       </c>
       <c r="B305" t="s">
-        <v>660</v>
+        <v>262</v>
       </c>
       <c r="C305" t="s">
-        <v>682</v>
+        <v>263</v>
+      </c>
+      <c r="D305" t="s">
+        <v>286</v>
       </c>
       <c r="E305" t="s">
-        <v>689</v>
+        <v>1127</v>
       </c>
       <c r="F305" t="s">
-        <v>1215</v>
+        <v>1128</v>
       </c>
       <c r="G305" t="s">
-        <v>1216</v>
+        <v>1129</v>
+      </c>
+      <c r="I305" t="s">
+        <v>1130</v>
       </c>
       <c r="J305" s="1" t="s">
-        <v>1217</v>
+        <v>1129</v>
       </c>
       <c r="K305" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>659</v>
-      </c>
-      <c r="B306" t="s">
-        <v>660</v>
+        <v>13</v>
       </c>
       <c r="C306" t="s">
-        <v>682</v>
+        <v>14</v>
+      </c>
+      <c r="D306" t="s">
+        <v>15</v>
       </c>
       <c r="E306" t="s">
-        <v>689</v>
+        <v>16</v>
       </c>
       <c r="F306" t="s">
-        <v>935</v>
+        <v>43</v>
       </c>
       <c r="G306" t="s">
-        <v>946</v>
-      </c>
-      <c r="H306" t="s">
-        <v>947</v>
+        <v>75</v>
       </c>
       <c r="I306" t="s">
-        <v>948</v>
+        <v>76</v>
       </c>
       <c r="J306" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="K306" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="O306" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="307" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>659</v>
       </c>
@@ -14964,144 +14982,153 @@
         <v>682</v>
       </c>
       <c r="E307" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="F307" t="s">
-        <v>889</v>
+        <v>695</v>
       </c>
       <c r="G307" t="s">
-        <v>890</v>
+        <v>844</v>
       </c>
       <c r="I307" t="s">
-        <v>891</v>
+        <v>698</v>
       </c>
       <c r="J307" s="1" t="s">
-        <v>892</v>
+        <v>844</v>
       </c>
       <c r="K307" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="O307" t="s">
-        <v>894</v>
+        <v>845</v>
       </c>
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>517</v>
+        <v>659</v>
       </c>
       <c r="B308" t="s">
-        <v>518</v>
+        <v>660</v>
       </c>
       <c r="C308" t="s">
-        <v>519</v>
+        <v>682</v>
       </c>
       <c r="E308" t="s">
-        <v>520</v>
+        <v>689</v>
       </c>
       <c r="F308" t="s">
-        <v>1273</v>
+        <v>1215</v>
       </c>
       <c r="G308" t="s">
-        <v>1274</v>
-      </c>
-      <c r="H308" t="s">
-        <v>1162</v>
-      </c>
-      <c r="I308" t="s">
-        <v>1161</v>
+        <v>1216</v>
       </c>
       <c r="J308" s="1" t="s">
-        <v>34</v>
+        <v>1217</v>
       </c>
       <c r="K308" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="M308" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>812</v>
+        <v>659</v>
+      </c>
+      <c r="B309" t="s">
+        <v>660</v>
       </c>
       <c r="C309" t="s">
-        <v>813</v>
+        <v>682</v>
       </c>
       <c r="E309" t="s">
-        <v>814</v>
+        <v>689</v>
       </c>
       <c r="F309" t="s">
-        <v>815</v>
+        <v>935</v>
       </c>
       <c r="G309" t="s">
-        <v>1008</v>
+        <v>946</v>
+      </c>
+      <c r="H309" t="s">
+        <v>947</v>
       </c>
       <c r="I309" t="s">
-        <v>1009</v>
+        <v>948</v>
       </c>
       <c r="J309" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K309" s="1" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+        <v>946</v>
+      </c>
+      <c r="O309" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>812</v>
+        <v>659</v>
+      </c>
+      <c r="B310" t="s">
+        <v>660</v>
       </c>
       <c r="C310" t="s">
-        <v>813</v>
+        <v>682</v>
       </c>
       <c r="E310" t="s">
-        <v>1029</v>
+        <v>689</v>
       </c>
       <c r="F310" t="s">
-        <v>1030</v>
+        <v>889</v>
       </c>
       <c r="G310" t="s">
-        <v>1033</v>
+        <v>890</v>
       </c>
       <c r="I310" t="s">
-        <v>1034</v>
+        <v>891</v>
       </c>
       <c r="J310" s="1" t="s">
-        <v>1033</v>
+        <v>892</v>
       </c>
       <c r="K310" s="1" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="311" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>893</v>
+      </c>
+      <c r="O310" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>13</v>
+        <v>517</v>
+      </c>
+      <c r="B311" t="s">
+        <v>518</v>
       </c>
       <c r="C311" t="s">
-        <v>14</v>
-      </c>
-      <c r="D311" t="s">
-        <v>23</v>
+        <v>519</v>
       </c>
       <c r="E311" t="s">
-        <v>186</v>
+        <v>520</v>
       </c>
       <c r="F311" t="s">
-        <v>187</v>
+        <v>1273</v>
       </c>
       <c r="G311" t="s">
-        <v>214</v>
+        <v>1274</v>
+      </c>
+      <c r="H311" t="s">
+        <v>1162</v>
       </c>
       <c r="I311" t="s">
-        <v>215</v>
+        <v>1161</v>
       </c>
       <c r="J311" s="1" t="s">
-        <v>216</v>
+        <v>34</v>
       </c>
       <c r="K311" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="312" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="M311" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>812</v>
       </c>
@@ -15115,19 +15142,19 @@
         <v>815</v>
       </c>
       <c r="G312" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="I312" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="J312" s="1" t="s">
-        <v>1012</v>
+        <v>34</v>
       </c>
       <c r="K312" s="1" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="313" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>812</v>
       </c>
@@ -15135,57 +15162,54 @@
         <v>813</v>
       </c>
       <c r="E313" t="s">
-        <v>814</v>
+        <v>1029</v>
       </c>
       <c r="F313" t="s">
-        <v>815</v>
+        <v>1030</v>
       </c>
       <c r="G313" t="s">
-        <v>1014</v>
+        <v>1033</v>
       </c>
       <c r="I313" t="s">
-        <v>1015</v>
+        <v>1034</v>
       </c>
       <c r="J313" s="1" t="s">
-        <v>1016</v>
+        <v>1033</v>
       </c>
       <c r="K313" s="1" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>659</v>
-      </c>
-      <c r="B314" t="s">
-        <v>660</v>
+        <v>13</v>
       </c>
       <c r="C314" t="s">
-        <v>682</v>
+        <v>14</v>
+      </c>
+      <c r="D314" t="s">
+        <v>23</v>
       </c>
       <c r="E314" t="s">
-        <v>683</v>
+        <v>186</v>
       </c>
       <c r="F314" t="s">
-        <v>695</v>
+        <v>187</v>
       </c>
       <c r="G314" t="s">
-        <v>846</v>
+        <v>214</v>
       </c>
       <c r="I314" t="s">
-        <v>847</v>
+        <v>215</v>
       </c>
       <c r="J314" s="1" t="s">
-        <v>34</v>
+        <v>216</v>
       </c>
       <c r="K314" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="O314" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>812</v>
       </c>
@@ -15199,22 +15223,19 @@
         <v>815</v>
       </c>
       <c r="G315" t="s">
-        <v>1018</v>
-      </c>
-      <c r="H315" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="I315" t="s">
-        <v>1276</v>
+        <v>1011</v>
       </c>
       <c r="J315" s="1" t="s">
-        <v>34</v>
+        <v>1012</v>
       </c>
       <c r="K315" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>812</v>
       </c>
@@ -15228,115 +15249,106 @@
         <v>815</v>
       </c>
       <c r="G316" t="s">
-        <v>1365</v>
-      </c>
-      <c r="H316" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="I316" t="s">
-        <v>1276</v>
+        <v>1015</v>
       </c>
       <c r="J316" s="1" t="s">
-        <v>34</v>
+        <v>1016</v>
       </c>
       <c r="K316" s="1" t="s">
-        <v>34</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>253</v>
+        <v>659</v>
       </c>
       <c r="B317" t="s">
-        <v>262</v>
+        <v>660</v>
       </c>
       <c r="C317" t="s">
-        <v>300</v>
-      </c>
-      <c r="D317" t="s">
-        <v>301</v>
+        <v>682</v>
       </c>
       <c r="E317" t="s">
-        <v>327</v>
+        <v>683</v>
       </c>
       <c r="F317" t="s">
-        <v>488</v>
+        <v>695</v>
       </c>
       <c r="G317" t="s">
-        <v>492</v>
+        <v>846</v>
       </c>
       <c r="I317" t="s">
-        <v>284</v>
+        <v>847</v>
       </c>
       <c r="J317" s="1" t="s">
-        <v>492</v>
+        <v>34</v>
       </c>
       <c r="K317" s="1" t="s">
-        <v>493</v>
+        <v>848</v>
+      </c>
+      <c r="O317" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>253</v>
-      </c>
-      <c r="B318" t="s">
-        <v>262</v>
+        <v>812</v>
       </c>
       <c r="C318" t="s">
-        <v>300</v>
-      </c>
-      <c r="D318" t="s">
-        <v>374</v>
+        <v>813</v>
       </c>
       <c r="E318" t="s">
-        <v>393</v>
+        <v>814</v>
       </c>
       <c r="F318" t="s">
-        <v>394</v>
+        <v>815</v>
       </c>
       <c r="G318" t="s">
-        <v>407</v>
+        <v>1018</v>
+      </c>
+      <c r="H318" t="s">
+        <v>1018</v>
       </c>
       <c r="I318" t="s">
-        <v>284</v>
+        <v>1276</v>
       </c>
       <c r="J318" s="1" t="s">
-        <v>408</v>
+        <v>34</v>
       </c>
       <c r="K318" s="1" t="s">
-        <v>408</v>
+        <v>34</v>
       </c>
     </row>
     <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>253</v>
-      </c>
-      <c r="B319" t="s">
-        <v>262</v>
+        <v>812</v>
       </c>
       <c r="C319" t="s">
-        <v>300</v>
-      </c>
-      <c r="D319" t="s">
-        <v>374</v>
+        <v>813</v>
       </c>
       <c r="E319" t="s">
-        <v>393</v>
+        <v>814</v>
       </c>
       <c r="F319" t="s">
-        <v>394</v>
+        <v>815</v>
       </c>
       <c r="G319" t="s">
-        <v>409</v>
+        <v>1365</v>
+      </c>
+      <c r="H319" t="s">
+        <v>1018</v>
       </c>
       <c r="I319" t="s">
-        <v>410</v>
+        <v>1276</v>
       </c>
       <c r="J319" s="1" t="s">
-        <v>409</v>
+        <v>34</v>
       </c>
       <c r="K319" s="1" t="s">
-        <v>409</v>
+        <v>34</v>
       </c>
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.25">
@@ -15353,28 +15365,25 @@
         <v>301</v>
       </c>
       <c r="E320" t="s">
-        <v>443</v>
+        <v>327</v>
       </c>
       <c r="F320" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G320" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="I320" t="s">
-        <v>501</v>
+        <v>284</v>
       </c>
       <c r="J320" s="1" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="K320" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="O320" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="321" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>253</v>
       </c>
@@ -15382,115 +15391,127 @@
         <v>262</v>
       </c>
       <c r="C321" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D321" t="s">
-        <v>286</v>
+        <v>374</v>
       </c>
       <c r="E321" t="s">
-        <v>287</v>
+        <v>393</v>
       </c>
       <c r="F321" t="s">
-        <v>288</v>
+        <v>394</v>
       </c>
       <c r="G321" t="s">
-        <v>297</v>
+        <v>407</v>
       </c>
       <c r="I321" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="J321" s="1" t="s">
-        <v>297</v>
+        <v>408</v>
       </c>
       <c r="K321" s="1" t="s">
-        <v>299</v>
+        <v>408</v>
       </c>
     </row>
     <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>596</v>
+        <v>253</v>
+      </c>
+      <c r="B322" t="s">
+        <v>262</v>
       </c>
       <c r="C322" t="s">
-        <v>927</v>
+        <v>300</v>
+      </c>
+      <c r="D322" t="s">
+        <v>374</v>
       </c>
       <c r="E322" t="s">
-        <v>928</v>
+        <v>393</v>
       </c>
       <c r="F322" t="s">
-        <v>929</v>
+        <v>394</v>
       </c>
       <c r="G322" t="s">
-        <v>930</v>
+        <v>409</v>
       </c>
       <c r="I322" t="s">
-        <v>931</v>
+        <v>410</v>
       </c>
       <c r="J322" s="1" t="s">
-        <v>34</v>
+        <v>409</v>
       </c>
       <c r="K322" s="1" t="s">
-        <v>930</v>
+        <v>409</v>
       </c>
     </row>
     <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>13</v>
+        <v>253</v>
+      </c>
+      <c r="B323" t="s">
+        <v>262</v>
       </c>
       <c r="C323" t="s">
-        <v>14</v>
+        <v>300</v>
       </c>
       <c r="D323" t="s">
-        <v>23</v>
+        <v>301</v>
       </c>
       <c r="E323" t="s">
-        <v>24</v>
+        <v>443</v>
       </c>
       <c r="F323" t="s">
-        <v>1077</v>
+        <v>494</v>
       </c>
       <c r="G323" t="s">
-        <v>1078</v>
+        <v>500</v>
       </c>
       <c r="I323" t="s">
-        <v>1079</v>
+        <v>501</v>
       </c>
       <c r="J323" s="1" t="s">
-        <v>1078</v>
+        <v>502</v>
       </c>
       <c r="K323" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="O323" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>659</v>
+        <v>253</v>
       </c>
       <c r="B324" t="s">
-        <v>660</v>
+        <v>262</v>
       </c>
       <c r="C324" t="s">
-        <v>682</v>
+        <v>263</v>
+      </c>
+      <c r="D324" t="s">
+        <v>286</v>
       </c>
       <c r="E324" t="s">
-        <v>1170</v>
+        <v>287</v>
       </c>
       <c r="F324" t="s">
-        <v>1171</v>
+        <v>288</v>
       </c>
       <c r="G324" t="s">
-        <v>1173</v>
+        <v>297</v>
       </c>
       <c r="I324" t="s">
-        <v>1174</v>
+        <v>298</v>
       </c>
       <c r="J324" s="1" t="s">
-        <v>1173</v>
+        <v>297</v>
       </c>
       <c r="K324" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O324" t="s">
-        <v>1175</v>
+        <v>299</v>
       </c>
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.25">
@@ -15507,164 +15528,161 @@
         <v>929</v>
       </c>
       <c r="G325" t="s">
-        <v>1272</v>
+        <v>930</v>
       </c>
       <c r="I325" t="s">
         <v>931</v>
       </c>
       <c r="J325" s="1" t="s">
-        <v>1272</v>
+        <v>34</v>
       </c>
       <c r="K325" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="326" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>567</v>
-      </c>
-      <c r="B326" t="s">
-        <v>568</v>
+        <v>13</v>
       </c>
       <c r="C326" t="s">
-        <v>569</v>
+        <v>14</v>
+      </c>
+      <c r="D326" t="s">
+        <v>23</v>
       </c>
       <c r="E326" t="s">
-        <v>570</v>
+        <v>24</v>
       </c>
       <c r="F326" t="s">
-        <v>571</v>
+        <v>1077</v>
       </c>
       <c r="G326" t="s">
-        <v>586</v>
+        <v>1078</v>
       </c>
       <c r="I326" t="s">
-        <v>587</v>
+        <v>1079</v>
       </c>
       <c r="J326" s="1" t="s">
-        <v>586</v>
+        <v>1078</v>
       </c>
       <c r="K326" s="1" t="s">
-        <v>588</v>
+        <v>34</v>
       </c>
     </row>
     <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>596</v>
+        <v>659</v>
+      </c>
+      <c r="B327" t="s">
+        <v>660</v>
       </c>
       <c r="C327" t="s">
-        <v>604</v>
+        <v>682</v>
       </c>
       <c r="E327" t="s">
-        <v>605</v>
+        <v>1170</v>
       </c>
       <c r="F327" t="s">
-        <v>610</v>
+        <v>1171</v>
       </c>
       <c r="G327" t="s">
-        <v>1248</v>
+        <v>1173</v>
       </c>
       <c r="I327" t="s">
-        <v>955</v>
+        <v>1174</v>
       </c>
       <c r="J327" s="1" t="s">
-        <v>1248</v>
+        <v>1173</v>
       </c>
       <c r="K327" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="O327" t="s">
+        <v>1175</v>
       </c>
     </row>
     <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>253</v>
-      </c>
-      <c r="B328" t="s">
-        <v>262</v>
+        <v>596</v>
       </c>
       <c r="C328" t="s">
-        <v>300</v>
-      </c>
-      <c r="D328" t="s">
-        <v>301</v>
+        <v>927</v>
       </c>
       <c r="E328" t="s">
-        <v>443</v>
+        <v>928</v>
       </c>
       <c r="F328" t="s">
-        <v>494</v>
+        <v>929</v>
       </c>
       <c r="G328" t="s">
-        <v>504</v>
+        <v>1272</v>
       </c>
       <c r="I328" t="s">
-        <v>505</v>
+        <v>931</v>
       </c>
       <c r="J328" s="1" t="s">
-        <v>504</v>
+        <v>1272</v>
       </c>
       <c r="K328" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="329" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>13</v>
+        <v>567</v>
+      </c>
+      <c r="B329" t="s">
+        <v>568</v>
       </c>
       <c r="C329" t="s">
-        <v>14</v>
-      </c>
-      <c r="D329" t="s">
-        <v>15</v>
+        <v>569</v>
       </c>
       <c r="E329" t="s">
-        <v>16</v>
+        <v>570</v>
       </c>
       <c r="F329" t="s">
-        <v>105</v>
+        <v>571</v>
       </c>
       <c r="G329" t="s">
-        <v>106</v>
+        <v>586</v>
       </c>
       <c r="I329" t="s">
-        <v>19</v>
+        <v>587</v>
       </c>
       <c r="J329" s="1" t="s">
-        <v>107</v>
+        <v>586</v>
       </c>
       <c r="K329" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="330" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>13</v>
+        <v>596</v>
       </c>
       <c r="C330" t="s">
-        <v>14</v>
-      </c>
-      <c r="D330" t="s">
-        <v>15</v>
+        <v>604</v>
       </c>
       <c r="E330" t="s">
-        <v>16</v>
+        <v>605</v>
       </c>
       <c r="F330" t="s">
-        <v>17</v>
+        <v>610</v>
       </c>
       <c r="G330" t="s">
-        <v>79</v>
+        <v>1248</v>
       </c>
       <c r="I330" t="s">
-        <v>80</v>
+        <v>955</v>
       </c>
       <c r="J330" s="1" t="s">
-        <v>79</v>
+        <v>1248</v>
       </c>
       <c r="K330" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="331" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>253</v>
       </c>
@@ -15675,89 +15693,86 @@
         <v>300</v>
       </c>
       <c r="D331" t="s">
-        <v>374</v>
+        <v>301</v>
       </c>
       <c r="E331" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="F331" t="s">
-        <v>394</v>
+        <v>494</v>
       </c>
       <c r="G331" t="s">
-        <v>411</v>
+        <v>504</v>
       </c>
       <c r="I331" t="s">
-        <v>412</v>
+        <v>505</v>
       </c>
       <c r="J331" s="1" t="s">
-        <v>413</v>
+        <v>504</v>
       </c>
       <c r="K331" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>596</v>
+        <v>13</v>
       </c>
       <c r="C332" t="s">
-        <v>627</v>
+        <v>14</v>
+      </c>
+      <c r="D332" t="s">
+        <v>15</v>
       </c>
       <c r="E332" t="s">
-        <v>628</v>
+        <v>16</v>
       </c>
       <c r="F332" t="s">
-        <v>632</v>
+        <v>105</v>
       </c>
       <c r="G332" t="s">
-        <v>633</v>
+        <v>106</v>
       </c>
       <c r="I332" t="s">
-        <v>624</v>
+        <v>19</v>
       </c>
       <c r="J332" s="1" t="s">
-        <v>633</v>
+        <v>107</v>
       </c>
       <c r="K332" s="1" t="s">
-        <v>634</v>
+        <v>108</v>
       </c>
     </row>
     <row r="333" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>253</v>
-      </c>
-      <c r="B333" t="s">
-        <v>262</v>
+        <v>13</v>
       </c>
       <c r="C333" t="s">
-        <v>300</v>
+        <v>14</v>
       </c>
       <c r="D333" t="s">
-        <v>374</v>
+        <v>15</v>
       </c>
       <c r="E333" t="s">
-        <v>380</v>
+        <v>16</v>
       </c>
       <c r="F333" t="s">
-        <v>381</v>
+        <v>17</v>
       </c>
       <c r="G333" t="s">
-        <v>507</v>
+        <v>79</v>
       </c>
       <c r="I333" t="s">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="J333" s="1" t="s">
-        <v>508</v>
+        <v>79</v>
       </c>
       <c r="K333" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="O333" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>253</v>
       </c>
@@ -15771,173 +15786,173 @@
         <v>374</v>
       </c>
       <c r="E334" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="F334" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="G334" t="s">
-        <v>1150</v>
+        <v>411</v>
       </c>
       <c r="I334" t="s">
-        <v>1151</v>
+        <v>412</v>
       </c>
       <c r="J334" s="1" t="s">
-        <v>1150</v>
+        <v>413</v>
       </c>
       <c r="K334" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O334" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="335" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>812</v>
+        <v>596</v>
       </c>
       <c r="C335" t="s">
-        <v>813</v>
+        <v>627</v>
       </c>
       <c r="E335" t="s">
-        <v>814</v>
+        <v>628</v>
       </c>
       <c r="F335" t="s">
-        <v>815</v>
+        <v>632</v>
       </c>
       <c r="G335" t="s">
-        <v>1019</v>
+        <v>633</v>
       </c>
       <c r="I335" t="s">
-        <v>1020</v>
+        <v>624</v>
       </c>
       <c r="J335" s="1" t="s">
-        <v>1019</v>
+        <v>633</v>
       </c>
       <c r="K335" s="1" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>812</v>
+        <v>253</v>
+      </c>
+      <c r="B336" t="s">
+        <v>262</v>
       </c>
       <c r="C336" t="s">
-        <v>813</v>
+        <v>300</v>
+      </c>
+      <c r="D336" t="s">
+        <v>374</v>
       </c>
       <c r="E336" t="s">
-        <v>814</v>
+        <v>380</v>
       </c>
       <c r="F336" t="s">
-        <v>815</v>
+        <v>381</v>
       </c>
       <c r="G336" t="s">
-        <v>1022</v>
+        <v>507</v>
       </c>
       <c r="I336" t="s">
-        <v>1023</v>
+        <v>365</v>
       </c>
       <c r="J336" s="1" t="s">
-        <v>34</v>
+        <v>508</v>
       </c>
       <c r="K336" s="1" t="s">
-        <v>1022</v>
+        <v>509</v>
+      </c>
+      <c r="O336" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>659</v>
+        <v>253</v>
       </c>
       <c r="B337" t="s">
-        <v>660</v>
+        <v>262</v>
       </c>
       <c r="C337" t="s">
-        <v>682</v>
+        <v>300</v>
+      </c>
+      <c r="D337" t="s">
+        <v>374</v>
       </c>
       <c r="E337" t="s">
-        <v>683</v>
+        <v>375</v>
       </c>
       <c r="F337" t="s">
-        <v>778</v>
+        <v>376</v>
       </c>
       <c r="G337" t="s">
-        <v>860</v>
+        <v>1150</v>
       </c>
       <c r="I337" t="s">
-        <v>861</v>
+        <v>1151</v>
       </c>
       <c r="J337" s="1" t="s">
-        <v>34</v>
+        <v>1150</v>
       </c>
       <c r="K337" s="1" t="s">
-        <v>862</v>
+        <v>34</v>
       </c>
       <c r="O337" t="s">
-        <v>863</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="338" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>596</v>
+        <v>812</v>
       </c>
       <c r="C338" t="s">
-        <v>597</v>
+        <v>813</v>
       </c>
       <c r="E338" t="s">
-        <v>598</v>
+        <v>814</v>
       </c>
       <c r="F338" t="s">
-        <v>599</v>
+        <v>815</v>
       </c>
       <c r="G338" t="s">
-        <v>1073</v>
+        <v>1019</v>
       </c>
       <c r="I338" t="s">
-        <v>1071</v>
+        <v>1020</v>
       </c>
       <c r="J338" s="1" t="s">
-        <v>34</v>
+        <v>1019</v>
       </c>
       <c r="K338" s="1" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="339" spans="1:15" ht="195" x14ac:dyDescent="0.25">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>659</v>
-      </c>
-      <c r="B339" t="s">
-        <v>660</v>
+        <v>812</v>
       </c>
       <c r="C339" t="s">
-        <v>682</v>
+        <v>813</v>
       </c>
       <c r="E339" t="s">
-        <v>683</v>
+        <v>814</v>
       </c>
       <c r="F339" t="s">
-        <v>695</v>
+        <v>815</v>
       </c>
       <c r="G339" t="s">
-        <v>696</v>
-      </c>
-      <c r="H339" t="s">
-        <v>697</v>
+        <v>1022</v>
       </c>
       <c r="I339" t="s">
-        <v>698</v>
+        <v>1023</v>
       </c>
       <c r="J339" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K339" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="M339" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="340" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>659</v>
       </c>
@@ -15951,54 +15966,51 @@
         <v>683</v>
       </c>
       <c r="F340" t="s">
-        <v>695</v>
+        <v>778</v>
       </c>
       <c r="G340" t="s">
-        <v>697</v>
+        <v>860</v>
       </c>
       <c r="I340" t="s">
-        <v>698</v>
+        <v>861</v>
       </c>
       <c r="J340" s="1" t="s">
-        <v>1176</v>
+        <v>34</v>
       </c>
       <c r="K340" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M340" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+        <v>862</v>
+      </c>
+      <c r="O340" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>659</v>
-      </c>
-      <c r="B341" t="s">
-        <v>660</v>
+        <v>596</v>
       </c>
       <c r="C341" t="s">
-        <v>682</v>
+        <v>597</v>
       </c>
       <c r="E341" t="s">
-        <v>683</v>
+        <v>598</v>
       </c>
       <c r="F341" t="s">
-        <v>778</v>
+        <v>599</v>
       </c>
       <c r="G341" t="s">
-        <v>864</v>
+        <v>1073</v>
       </c>
       <c r="I341" t="s">
-        <v>865</v>
+        <v>1071</v>
       </c>
       <c r="J341" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K341" s="1" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15" ht="195" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>659</v>
       </c>
@@ -16006,28 +16018,34 @@
         <v>660</v>
       </c>
       <c r="C342" t="s">
-        <v>962</v>
+        <v>682</v>
       </c>
       <c r="E342" t="s">
-        <v>963</v>
+        <v>683</v>
       </c>
       <c r="F342" t="s">
-        <v>964</v>
+        <v>695</v>
       </c>
       <c r="G342" t="s">
-        <v>965</v>
+        <v>696</v>
+      </c>
+      <c r="H342" t="s">
+        <v>697</v>
       </c>
       <c r="I342" t="s">
-        <v>534</v>
+        <v>698</v>
       </c>
       <c r="J342" s="1" t="s">
-        <v>965</v>
+        <v>34</v>
       </c>
       <c r="K342" s="1" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="343" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+        <v>699</v>
+      </c>
+      <c r="M342" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="343" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>659</v>
       </c>
@@ -16041,199 +16059,205 @@
         <v>683</v>
       </c>
       <c r="F343" t="s">
-        <v>778</v>
+        <v>695</v>
       </c>
       <c r="G343" t="s">
-        <v>799</v>
+        <v>697</v>
       </c>
       <c r="I343" t="s">
-        <v>749</v>
+        <v>698</v>
       </c>
       <c r="J343" s="1" t="s">
-        <v>800</v>
+        <v>1176</v>
       </c>
       <c r="K343" s="1" t="s">
-        <v>801</v>
+        <v>34</v>
+      </c>
+      <c r="M343" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>253</v>
+        <v>659</v>
       </c>
       <c r="B344" t="s">
-        <v>262</v>
+        <v>660</v>
       </c>
       <c r="C344" t="s">
-        <v>263</v>
-      </c>
-      <c r="D344" t="s">
-        <v>286</v>
+        <v>682</v>
       </c>
       <c r="E344" t="s">
-        <v>1127</v>
+        <v>683</v>
       </c>
       <c r="F344" t="s">
-        <v>1136</v>
+        <v>778</v>
       </c>
       <c r="G344" t="s">
-        <v>1137</v>
+        <v>864</v>
       </c>
       <c r="I344" t="s">
-        <v>1138</v>
+        <v>865</v>
       </c>
       <c r="J344" s="1" t="s">
-        <v>1137</v>
+        <v>34</v>
       </c>
       <c r="K344" s="1" t="s">
-        <v>34</v>
+        <v>866</v>
       </c>
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>13</v>
+        <v>659</v>
+      </c>
+      <c r="B345" t="s">
+        <v>660</v>
       </c>
       <c r="C345" t="s">
-        <v>14</v>
-      </c>
-      <c r="D345" t="s">
-        <v>109</v>
+        <v>962</v>
       </c>
       <c r="E345" t="s">
-        <v>110</v>
+        <v>963</v>
       </c>
       <c r="F345" t="s">
-        <v>111</v>
+        <v>964</v>
       </c>
       <c r="G345" t="s">
-        <v>112</v>
+        <v>965</v>
       </c>
       <c r="I345" t="s">
-        <v>113</v>
+        <v>534</v>
       </c>
       <c r="J345" s="1" t="s">
-        <v>34</v>
+        <v>965</v>
       </c>
       <c r="K345" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="346" spans="1:15" ht="225" x14ac:dyDescent="0.25">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>567</v>
+        <v>659</v>
       </c>
       <c r="B346" t="s">
-        <v>568</v>
+        <v>660</v>
       </c>
       <c r="C346" t="s">
-        <v>569</v>
+        <v>682</v>
       </c>
       <c r="E346" t="s">
-        <v>570</v>
+        <v>683</v>
       </c>
       <c r="F346" t="s">
-        <v>571</v>
+        <v>778</v>
       </c>
       <c r="G346" t="s">
-        <v>589</v>
+        <v>799</v>
       </c>
       <c r="I346" t="s">
-        <v>590</v>
+        <v>749</v>
       </c>
       <c r="J346" s="1" t="s">
-        <v>591</v>
+        <v>800</v>
       </c>
       <c r="K346" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="O346" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="347" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>659</v>
+        <v>253</v>
       </c>
       <c r="B347" t="s">
-        <v>660</v>
+        <v>262</v>
       </c>
       <c r="C347" t="s">
-        <v>682</v>
+        <v>263</v>
+      </c>
+      <c r="D347" t="s">
+        <v>286</v>
       </c>
       <c r="E347" t="s">
-        <v>689</v>
+        <v>1127</v>
       </c>
       <c r="F347" t="s">
-        <v>836</v>
+        <v>1136</v>
       </c>
       <c r="G347" t="s">
-        <v>837</v>
+        <v>1137</v>
       </c>
       <c r="I347" t="s">
-        <v>838</v>
+        <v>1138</v>
       </c>
       <c r="J347" s="1" t="s">
-        <v>837</v>
+        <v>1137</v>
       </c>
       <c r="K347" s="1" t="s">
-        <v>839</v>
+        <v>34</v>
       </c>
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>596</v>
+        <v>13</v>
       </c>
       <c r="C348" t="s">
-        <v>927</v>
+        <v>14</v>
+      </c>
+      <c r="D348" t="s">
+        <v>109</v>
       </c>
       <c r="E348" t="s">
-        <v>1047</v>
+        <v>110</v>
       </c>
       <c r="F348" t="s">
-        <v>1048</v>
+        <v>111</v>
       </c>
       <c r="G348" t="s">
-        <v>1049</v>
+        <v>112</v>
       </c>
       <c r="I348" t="s">
-        <v>1050</v>
+        <v>113</v>
       </c>
       <c r="J348" s="1" t="s">
-        <v>1049</v>
+        <v>34</v>
       </c>
       <c r="K348" s="1" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15" ht="225" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>13</v>
+        <v>567</v>
+      </c>
+      <c r="B349" t="s">
+        <v>568</v>
       </c>
       <c r="C349" t="s">
-        <v>14</v>
-      </c>
-      <c r="D349" t="s">
-        <v>23</v>
+        <v>569</v>
       </c>
       <c r="E349" t="s">
-        <v>92</v>
+        <v>570</v>
       </c>
       <c r="F349" t="s">
-        <v>145</v>
+        <v>571</v>
       </c>
       <c r="G349" t="s">
-        <v>178</v>
+        <v>589</v>
       </c>
       <c r="I349" t="s">
-        <v>179</v>
+        <v>590</v>
       </c>
       <c r="J349" s="1" t="s">
-        <v>178</v>
+        <v>591</v>
       </c>
       <c r="K349" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+      <c r="O349" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>659</v>
       </c>
@@ -16241,57 +16265,51 @@
         <v>660</v>
       </c>
       <c r="C350" t="s">
-        <v>661</v>
+        <v>682</v>
       </c>
       <c r="E350" t="s">
-        <v>662</v>
+        <v>689</v>
       </c>
       <c r="F350" t="s">
-        <v>738</v>
+        <v>836</v>
       </c>
       <c r="G350" t="s">
-        <v>1194</v>
+        <v>837</v>
       </c>
       <c r="I350" t="s">
-        <v>437</v>
+        <v>838</v>
       </c>
       <c r="J350" s="1" t="s">
-        <v>1194</v>
+        <v>837</v>
       </c>
       <c r="K350" s="1" t="s">
-        <v>34</v>
+        <v>839</v>
       </c>
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>253</v>
-      </c>
-      <c r="B351" t="s">
-        <v>262</v>
+        <v>596</v>
       </c>
       <c r="C351" t="s">
-        <v>300</v>
-      </c>
-      <c r="D351" t="s">
-        <v>301</v>
+        <v>927</v>
       </c>
       <c r="E351" t="s">
-        <v>341</v>
+        <v>1047</v>
       </c>
       <c r="F351" t="s">
-        <v>342</v>
+        <v>1048</v>
       </c>
       <c r="G351" t="s">
-        <v>357</v>
+        <v>1049</v>
       </c>
       <c r="I351" t="s">
-        <v>358</v>
+        <v>1050</v>
       </c>
       <c r="J351" s="1" t="s">
-        <v>357</v>
+        <v>1049</v>
       </c>
       <c r="K351" s="1" t="s">
-        <v>357</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.25">
@@ -16311,19 +16329,19 @@
         <v>145</v>
       </c>
       <c r="G352" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I352" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="J352" s="1" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="K352" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="353" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>659</v>
       </c>
@@ -16331,319 +16349,346 @@
         <v>660</v>
       </c>
       <c r="C353" t="s">
+        <v>661</v>
+      </c>
+      <c r="E353" t="s">
+        <v>662</v>
+      </c>
+      <c r="F353" t="s">
+        <v>738</v>
+      </c>
+      <c r="G353" t="s">
+        <v>1194</v>
+      </c>
+      <c r="I353" t="s">
+        <v>437</v>
+      </c>
+      <c r="J353" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="K353" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>253</v>
+      </c>
+      <c r="B354" t="s">
+        <v>262</v>
+      </c>
+      <c r="C354" t="s">
+        <v>300</v>
+      </c>
+      <c r="D354" t="s">
+        <v>301</v>
+      </c>
+      <c r="E354" t="s">
+        <v>341</v>
+      </c>
+      <c r="F354" t="s">
+        <v>342</v>
+      </c>
+      <c r="G354" t="s">
+        <v>357</v>
+      </c>
+      <c r="I354" t="s">
+        <v>358</v>
+      </c>
+      <c r="J354" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="K354" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>13</v>
+      </c>
+      <c r="C355" t="s">
+        <v>14</v>
+      </c>
+      <c r="D355" t="s">
+        <v>23</v>
+      </c>
+      <c r="E355" t="s">
+        <v>92</v>
+      </c>
+      <c r="F355" t="s">
+        <v>145</v>
+      </c>
+      <c r="G355" t="s">
+        <v>181</v>
+      </c>
+      <c r="I355" t="s">
+        <v>161</v>
+      </c>
+      <c r="J355" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K355" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>659</v>
+      </c>
+      <c r="B356" t="s">
+        <v>660</v>
+      </c>
+      <c r="C356" t="s">
         <v>802</v>
       </c>
-      <c r="E353" t="s">
+      <c r="E356" t="s">
         <v>900</v>
       </c>
-      <c r="F353" t="s">
+      <c r="F356" t="s">
         <v>908</v>
       </c>
-      <c r="G353" t="s">
+      <c r="G356" t="s">
         <v>932</v>
       </c>
-      <c r="I353" t="s">
+      <c r="I356" t="s">
         <v>933</v>
       </c>
-      <c r="J353" s="1" t="s">
+      <c r="J356" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="K353" s="1" t="s">
+      <c r="K356" s="1" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
         <v>596</v>
       </c>
-      <c r="C354" t="s">
+      <c r="C357" t="s">
         <v>604</v>
       </c>
-      <c r="E354" t="s">
+      <c r="E357" t="s">
         <v>605</v>
       </c>
-      <c r="F354" t="s">
+      <c r="F357" t="s">
         <v>606</v>
       </c>
-      <c r="G354" t="s">
+      <c r="G357" t="s">
         <v>642</v>
       </c>
-      <c r="I354" t="s">
+      <c r="I357" t="s">
         <v>624</v>
       </c>
-      <c r="J354" s="1" t="s">
+      <c r="J357" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="K354" s="1" t="s">
+      <c r="K357" s="1" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
         <v>253</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B358" t="s">
         <v>254</v>
       </c>
-      <c r="C355" t="s">
+      <c r="C358" t="s">
         <v>255</v>
       </c>
-      <c r="E355" t="s">
+      <c r="E358" t="s">
         <v>281</v>
       </c>
-      <c r="F355" t="s">
+      <c r="F358" t="s">
         <v>282</v>
       </c>
-      <c r="G355" t="s">
+      <c r="G358" t="s">
         <v>1125</v>
       </c>
-      <c r="I355" t="s">
+      <c r="I358" t="s">
         <v>1126</v>
       </c>
-      <c r="J355" s="1" t="s">
+      <c r="J358" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="K355" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
+      <c r="K358" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
         <v>596</v>
       </c>
-      <c r="C356" t="s">
+      <c r="C359" t="s">
         <v>653</v>
       </c>
-      <c r="E356" t="s">
+      <c r="E359" t="s">
         <v>654</v>
       </c>
-      <c r="F356" t="s">
+      <c r="F359" t="s">
         <v>655</v>
       </c>
-      <c r="G356" t="s">
+      <c r="G359" t="s">
         <v>1239</v>
       </c>
-      <c r="I356" t="s">
+      <c r="I359" t="s">
         <v>1240</v>
       </c>
-      <c r="J356" s="1" t="s">
+      <c r="J359" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="K356" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
+      <c r="K359" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
         <v>659</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B360" t="s">
         <v>660</v>
       </c>
-      <c r="C357" t="s">
+      <c r="C360" t="s">
         <v>682</v>
       </c>
-      <c r="E357" t="s">
+      <c r="E360" t="s">
         <v>689</v>
       </c>
-      <c r="F357" t="s">
+      <c r="F360" t="s">
         <v>967</v>
       </c>
-      <c r="G357" t="s">
+      <c r="G360" t="s">
         <v>979</v>
       </c>
-      <c r="I357" t="s">
+      <c r="I360" t="s">
         <v>980</v>
       </c>
-      <c r="J357" s="1" t="s">
+      <c r="J360" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="K357" s="1" t="s">
+      <c r="K360" s="1" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="358" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
+    <row r="361" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
         <v>659</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B361" t="s">
         <v>660</v>
       </c>
-      <c r="C358" t="s">
+      <c r="C361" t="s">
         <v>682</v>
       </c>
-      <c r="E358" t="s">
+      <c r="E361" t="s">
         <v>683</v>
       </c>
-      <c r="F358" t="s">
+      <c r="F361" t="s">
         <v>778</v>
       </c>
-      <c r="G358" t="s">
+      <c r="G361" t="s">
         <v>779</v>
       </c>
-      <c r="I358" t="s">
+      <c r="I361" t="s">
         <v>780</v>
       </c>
-      <c r="J358" s="1" t="s">
+      <c r="J361" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="K358" s="1" t="s">
+      <c r="K361" s="1" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="359" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
+    <row r="362" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
         <v>13</v>
       </c>
-      <c r="C359" t="s">
+      <c r="C362" t="s">
         <v>14</v>
       </c>
-      <c r="D359" t="s">
+      <c r="D362" t="s">
         <v>15</v>
       </c>
-      <c r="E359" t="s">
+      <c r="E362" t="s">
         <v>16</v>
       </c>
-      <c r="F359" t="s">
+      <c r="F362" t="s">
         <v>43</v>
       </c>
-      <c r="G359" t="s">
+      <c r="G362" t="s">
         <v>82</v>
       </c>
-      <c r="I359" t="s">
+      <c r="I362" t="s">
         <v>83</v>
       </c>
-      <c r="J359" s="1" t="s">
+      <c r="J362" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K359" s="1" t="s">
+      <c r="K362" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
         <v>812</v>
       </c>
-      <c r="C360" t="s">
+      <c r="C363" t="s">
         <v>813</v>
       </c>
-      <c r="E360" t="s">
+      <c r="E363" t="s">
         <v>814</v>
       </c>
-      <c r="F360" t="s">
+      <c r="F363" t="s">
         <v>815</v>
       </c>
-      <c r="G360" t="s">
+      <c r="G363" t="s">
         <v>1024</v>
       </c>
-      <c r="I360" t="s">
+      <c r="I363" t="s">
         <v>821</v>
       </c>
-      <c r="J360" s="1" t="s">
+      <c r="J363" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="K360" s="1" t="s">
+      <c r="K363" s="1" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
         <v>812</v>
       </c>
-      <c r="C361" t="s">
+      <c r="C364" t="s">
         <v>813</v>
       </c>
-      <c r="E361" t="s">
+      <c r="E364" t="s">
         <v>1029</v>
       </c>
-      <c r="F361" t="s">
+      <c r="F364" t="s">
         <v>1030</v>
       </c>
-      <c r="G361" t="s">
+      <c r="G364" t="s">
         <v>1035</v>
       </c>
-      <c r="I361" t="s">
+      <c r="I364" t="s">
         <v>826</v>
       </c>
-      <c r="J361" s="1" t="s">
+      <c r="J364" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="K361" s="1" t="s">
+      <c r="K364" s="1" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>253</v>
-      </c>
-      <c r="B362" t="s">
-        <v>262</v>
-      </c>
-      <c r="C362" t="s">
-        <v>300</v>
-      </c>
-      <c r="D362" t="s">
-        <v>301</v>
-      </c>
-      <c r="E362" t="s">
-        <v>307</v>
-      </c>
-      <c r="F362" t="s">
-        <v>313</v>
-      </c>
-      <c r="G362" t="s">
-        <v>1367</v>
-      </c>
-      <c r="I362" t="s">
-        <v>1369</v>
-      </c>
-      <c r="J362" t="s">
-        <v>1367</v>
-      </c>
-      <c r="K362" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O362" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
-        <v>13</v>
-      </c>
-      <c r="C363" t="s">
-        <v>14</v>
-      </c>
-      <c r="D363" t="s">
-        <v>15</v>
-      </c>
-      <c r="E363" t="s">
-        <v>16</v>
-      </c>
-      <c r="F363" t="s">
-        <v>193</v>
-      </c>
-      <c r="G363" t="s">
-        <v>1366</v>
-      </c>
-      <c r="I363" t="s">
-        <v>161</v>
-      </c>
-      <c r="J363" t="s">
-        <v>1366</v>
-      </c>
-      <c r="K363" t="s">
-        <v>1371</v>
-      </c>
-      <c r="O363" t="s">
-        <v>1370</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:O363"/>
+  <autoFilter ref="A1:O364">
+    <sortState ref="A2:O364">
+      <sortCondition ref="G1:G364"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="F362" r:id="rId1" display="http://algaebase.org/browse/taxonomy/?id=77642"/>
-    <hyperlink ref="E362" r:id="rId2" display="http://algaebase.org/browse/taxonomy/?id=139129"/>
+    <hyperlink ref="F188" r:id="rId1" display="http://algaebase.org/browse/taxonomy/?id=77642"/>
+    <hyperlink ref="E188" r:id="rId2" display="http://algaebase.org/browse/taxonomy/?id=139129"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/output/nla_phyto_taxonomy.xlsx
+++ b/output/nla_phyto_taxonomy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13995" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13995" windowHeight="7500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="nla_phyto_taxonomy" sheetId="1" r:id="rId1"/>
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3582" uniqueCount="1376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3582" uniqueCount="1374">
   <si>
     <t>phylum</t>
   </si>
@@ -4670,12 +4670,6 @@
   </si>
   <si>
     <t>Pseudoanabaena</t>
-  </si>
-  <si>
-    <t>Synechococcusb</t>
-  </si>
-  <si>
-    <t>Synechocystisb</t>
   </si>
   <si>
     <t>Fischerella</t>
@@ -5777,9 +5771,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O364"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11422,19 +11416,19 @@
         <v>1039</v>
       </c>
       <c r="G186" t="s">
+        <v>1370</v>
+      </c>
+      <c r="I186" t="s">
         <v>1372</v>
       </c>
-      <c r="I186" t="s">
-        <v>1374</v>
-      </c>
       <c r="J186" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K186" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="O186" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
@@ -11454,19 +11448,19 @@
         <v>193</v>
       </c>
       <c r="G187" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="I187" t="s">
         <v>161</v>
       </c>
       <c r="J187" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="K187" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="O187" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
@@ -11489,19 +11483,19 @@
         <v>313</v>
       </c>
       <c r="G188" t="s">
+        <v>1365</v>
+      </c>
+      <c r="I188" t="s">
         <v>1367</v>
       </c>
-      <c r="I188" t="s">
-        <v>1369</v>
-      </c>
       <c r="J188" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="K188" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O188" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
@@ -15336,7 +15330,7 @@
         <v>815</v>
       </c>
       <c r="G319" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="H319" t="s">
         <v>1018</v>
@@ -16681,11 +16675,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O364">
-    <sortState ref="A2:O364">
-      <sortCondition ref="G1:G364"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:O364"/>
   <hyperlinks>
     <hyperlink ref="F188" r:id="rId1" display="http://algaebase.org/browse/taxonomy/?id=77642"/>
     <hyperlink ref="E188" r:id="rId2" display="http://algaebase.org/browse/taxonomy/?id=139129"/>
@@ -16700,7 +16690,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16733,7 +16723,7 @@
         <v>1356</v>
       </c>
       <c r="G1" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -16840,7 +16830,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -16932,7 +16922,7 @@
       </c>
       <c r="F19" s="35"/>
       <c r="G19" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -16945,7 +16935,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1358</v>
+        <v>106</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -16953,7 +16943,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1359</v>
+        <v>79</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -17060,7 +17050,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
@@ -17171,7 +17161,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
@@ -17194,8 +17184,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/output/nla_phyto_taxonomy.xlsx
+++ b/output/nla_phyto_taxonomy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13995" windowHeight="7500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13995" windowHeight="7500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nla_phyto_taxonomy" sheetId="1" r:id="rId1"/>
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3582" uniqueCount="1374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3582" uniqueCount="1373">
   <si>
     <t>phylum</t>
   </si>
@@ -4667,9 +4667,6 @@
   </si>
   <si>
     <t>saxitoxin</t>
-  </si>
-  <si>
-    <t>Pseudoanabaena</t>
   </si>
   <si>
     <t>Fischerella</t>
@@ -11416,19 +11413,19 @@
         <v>1039</v>
       </c>
       <c r="G186" t="s">
+        <v>1369</v>
+      </c>
+      <c r="I186" t="s">
+        <v>1371</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K186" t="s">
+        <v>1372</v>
+      </c>
+      <c r="O186" t="s">
         <v>1370</v>
-      </c>
-      <c r="I186" t="s">
-        <v>1372</v>
-      </c>
-      <c r="J186" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K186" t="s">
-        <v>1373</v>
-      </c>
-      <c r="O186" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
@@ -11448,19 +11445,19 @@
         <v>193</v>
       </c>
       <c r="G187" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="I187" t="s">
         <v>161</v>
       </c>
       <c r="J187" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="K187" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="O187" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
@@ -11483,19 +11480,19 @@
         <v>313</v>
       </c>
       <c r="G188" t="s">
+        <v>1364</v>
+      </c>
+      <c r="I188" t="s">
+        <v>1366</v>
+      </c>
+      <c r="J188" t="s">
+        <v>1364</v>
+      </c>
+      <c r="K188" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O188" t="s">
         <v>1365</v>
-      </c>
-      <c r="I188" t="s">
-        <v>1367</v>
-      </c>
-      <c r="J188" t="s">
-        <v>1365</v>
-      </c>
-      <c r="K188" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O188" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
@@ -15330,7 +15327,7 @@
         <v>815</v>
       </c>
       <c r="G319" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H319" t="s">
         <v>1018</v>
@@ -16689,8 +16686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16723,7 +16720,7 @@
         <v>1356</v>
       </c>
       <c r="G1" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -16830,7 +16827,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -16901,7 +16898,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1357</v>
+        <v>206</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -16922,7 +16919,7 @@
       </c>
       <c r="F19" s="35"/>
       <c r="G19" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -17050,7 +17047,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
@@ -17161,7 +17158,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
@@ -17184,7 +17181,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>

--- a/output/nla_phyto_taxonomy.xlsx
+++ b/output/nla_phyto_taxonomy.xlsx
@@ -2,33 +2,71 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bryan\rscripts\lakes_database\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13995" windowHeight="7500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13995" windowHeight="7500"/>
   </bookViews>
   <sheets>
-    <sheet name="nla_phyto_taxonomy" sheetId="1" r:id="rId1"/>
-    <sheet name="toxLoftin" sheetId="5" r:id="rId2"/>
-    <sheet name="toxPaerl" sheetId="4" r:id="rId3"/>
-    <sheet name="toxins" sheetId="2" r:id="rId4"/>
-    <sheet name="confusions" sheetId="3" r:id="rId5"/>
+    <sheet name="toxLoftin (2)" sheetId="6" r:id="rId1"/>
+    <sheet name="nla_phyto_taxonomy" sheetId="1" r:id="rId2"/>
+    <sheet name="toxLoftin" sheetId="5" r:id="rId3"/>
+    <sheet name="toxPaerl" sheetId="4" r:id="rId4"/>
+    <sheet name="toxins" sheetId="2" r:id="rId5"/>
+    <sheet name="confusions" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nla_phyto_taxonomy!$A$1:$O$364</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">toxins!$A$1:$J$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">toxLoftin!$A$1:$F$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">toxPaerl!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">nla_phyto_taxonomy!$A$1:$O$364</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">toxins!$A$1:$J$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">toxLoftin!$A$1:$F$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'toxLoftin (2)'!$A$1:$F$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">toxPaerl!$A$1:$G$13</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Milstead, William</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milstead, William:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Modified Table 1 from:
+Loftin, K. A., et al. (2016). "Cyanotoxins in inland lakes of the United States: Occurrence and potential recreational health risks in the EPA National Lakes Assessment 2007." Harmful Algae 56: 77-90.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Milstead, William</author>
@@ -161,7 +199,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Milstead, William</author>
@@ -293,7 +331,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3582" uniqueCount="1373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3609" uniqueCount="1373">
   <si>
     <t>phylum</t>
   </si>
@@ -5321,7 +5359,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5410,6 +5448,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5765,7 +5814,325 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="37" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="37">
+        <v>1</v>
+      </c>
+      <c r="C2" s="37">
+        <v>1</v>
+      </c>
+      <c r="D2" s="37">
+        <v>1</v>
+      </c>
+      <c r="F2" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="37">
+        <v>1</v>
+      </c>
+      <c r="C4" s="37">
+        <v>1</v>
+      </c>
+      <c r="F4" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="37">
+        <v>1</v>
+      </c>
+      <c r="F7" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="38">
+        <v>1</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="36"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38">
+        <v>1</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="36"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38">
+        <v>1</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="36"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38">
+        <v>1</v>
+      </c>
+      <c r="D11" s="38">
+        <v>1</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38">
+        <v>1</v>
+      </c>
+      <c r="G11" s="36"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38">
+        <v>1</v>
+      </c>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="36"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38">
+        <v>1</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="39">
+        <v>1</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39">
+        <v>1</v>
+      </c>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38">
+        <v>1</v>
+      </c>
+      <c r="G14" s="36"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="38">
+        <v>1</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38">
+        <v>1</v>
+      </c>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="36"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38">
+        <v>1</v>
+      </c>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38">
+        <v>1</v>
+      </c>
+      <c r="G16" s="36"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="38">
+        <v>1</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38">
+        <v>1</v>
+      </c>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38">
+        <v>1</v>
+      </c>
+      <c r="G17" s="36"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="B18" s="38">
+        <v>1</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38">
+        <v>1</v>
+      </c>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="36"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="38">
+        <v>1</v>
+      </c>
+      <c r="C19" s="38">
+        <v>1</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="36"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38">
+        <v>1</v>
+      </c>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="36"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="37">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O364"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -16682,11 +17049,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -16953,8 +17321,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17176,9 +17545,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+  <sheetPr codeName="Sheet4" filterMode="1"/>
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17581,8 +17950,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
